--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_5_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_5_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1041279.529742958</v>
+        <v>-1043664.350893088</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5927271.091497844</v>
+        <v>5927271.091497815</v>
       </c>
     </row>
     <row r="8">
@@ -668,10 +668,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>291.0982423168553</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>126.3957515731891</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>53.90009779996979</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>120.7419800545114</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>94.65568569260671</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>184.555979353255</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>40.63402247324701</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>20.92041677519539</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>89.83938363460548</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,7 +1142,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>97.76331837975076</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>114.2199352296377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1300,19 +1300,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>110.0115294480441</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,10 +1339,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>67.65349471023484</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1385,10 +1385,10 @@
         <v>412.0158937510656</v>
       </c>
       <c r="H11" t="n">
-        <v>305.8134134169904</v>
+        <v>241.0772539740995</v>
       </c>
       <c r="I11" t="n">
-        <v>83.75984535611664</v>
+        <v>83.7598453561166</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>208.7076909869171</v>
       </c>
       <c r="U11" t="n">
-        <v>186.3465459638178</v>
+        <v>251.0827054067109</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1467,7 +1467,7 @@
         <v>95.25091164536762</v>
       </c>
       <c r="I12" t="n">
-        <v>28.84777688394853</v>
+        <v>28.8477768839485</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.516614399535</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>141.4238192883578</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1579,22 +1579,22 @@
         <v>198.322437798273</v>
       </c>
       <c r="T13" t="n">
-        <v>221.6460300583344</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2386094496405</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>69.05753750190308</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.17558728915</v>
+        <v>411.1755872891501</v>
       </c>
       <c r="H14" t="n">
-        <v>297.2076248638982</v>
+        <v>297.2076248638984</v>
       </c>
       <c r="I14" t="n">
-        <v>51.36393048311891</v>
+        <v>51.36393048311959</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>114.972633811612</v>
+        <v>114.9726338116124</v>
       </c>
       <c r="T14" t="n">
-        <v>205.029249449882</v>
+        <v>205.0292494498821</v>
       </c>
       <c r="U14" t="n">
         <v>251.0154808897577</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1701,10 +1701,10 @@
         <v>135.1352971154112</v>
       </c>
       <c r="H15" t="n">
-        <v>90.90868745906511</v>
+        <v>90.90868745906521</v>
       </c>
       <c r="I15" t="n">
-        <v>13.36800401270659</v>
+        <v>13.36800401270693</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>130.6664522335282</v>
+        <v>130.6664522335284</v>
       </c>
       <c r="T15" t="n">
         <v>191.2640522740862</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>40.93925195758734</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.1396818493028</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>145.7674546533073</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>94.05232337457429</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>191.7535314455905</v>
       </c>
       <c r="T16" t="n">
         <v>220.0355000709787</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2180494923551</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>207.6104660367731</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.17558728915</v>
+        <v>411.1755872891501</v>
       </c>
       <c r="H17" t="n">
-        <v>297.2076248638982</v>
+        <v>297.2076248638984</v>
       </c>
       <c r="I17" t="n">
-        <v>51.36393048311891</v>
+        <v>51.36393048311959</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>114.972633811612</v>
+        <v>114.9726338116124</v>
       </c>
       <c r="T17" t="n">
-        <v>205.029249449882</v>
+        <v>205.0292494498821</v>
       </c>
       <c r="U17" t="n">
         <v>251.0154808897577</v>
@@ -1938,10 +1938,10 @@
         <v>135.1352971154112</v>
       </c>
       <c r="H18" t="n">
-        <v>90.90868745906511</v>
+        <v>90.90868745906521</v>
       </c>
       <c r="I18" t="n">
-        <v>13.36800401270659</v>
+        <v>13.36800401270693</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>130.6664522335282</v>
+        <v>130.6664522335284</v>
       </c>
       <c r="T18" t="n">
         <v>191.2640522740862</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         <v>166.1396818493028</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>145.7674546533074</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>99.77690983373142</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>191.7535314455903</v>
+        <v>191.7535314455905</v>
       </c>
       <c r="T19" t="n">
-        <v>220.0355000709787</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2180494923551</v>
+        <v>203.6012906234488</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>73.67462882859829</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.17558728915</v>
+        <v>411.1755872891501</v>
       </c>
       <c r="H20" t="n">
-        <v>297.2076248638982</v>
+        <v>297.2076248638984</v>
       </c>
       <c r="I20" t="n">
-        <v>51.36393048311891</v>
+        <v>51.36393048311959</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>114.972633811612</v>
+        <v>114.9726338116124</v>
       </c>
       <c r="T20" t="n">
-        <v>205.029249449882</v>
+        <v>205.0292494498821</v>
       </c>
       <c r="U20" t="n">
         <v>251.0154808897577</v>
@@ -2175,10 +2175,10 @@
         <v>135.1352971154112</v>
       </c>
       <c r="H21" t="n">
-        <v>90.90868745906511</v>
+        <v>90.90868745906521</v>
       </c>
       <c r="I21" t="n">
-        <v>13.36800401270659</v>
+        <v>13.36800401270693</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>130.6664522335282</v>
+        <v>130.6664522335284</v>
       </c>
       <c r="T21" t="n">
         <v>191.2640522740862</v>
@@ -2239,13 +2239,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>99.77690983373142</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>167.3085489578426</v>
+        <v>220.0355000709787</v>
       </c>
       <c r="U22" t="n">
         <v>286.2180494923551</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>261.8217519558695</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2330,13 +2330,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.17558728915</v>
+        <v>411.1755872891501</v>
       </c>
       <c r="H23" t="n">
-        <v>297.2076248638982</v>
+        <v>297.2076248638984</v>
       </c>
       <c r="I23" t="n">
-        <v>51.36393048311891</v>
+        <v>51.36393048311982</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>114.972633811612</v>
+        <v>114.9726338116125</v>
       </c>
       <c r="T23" t="n">
-        <v>205.029249449882</v>
+        <v>205.0292494498821</v>
       </c>
       <c r="U23" t="n">
         <v>251.0154808897577</v>
@@ -2412,10 +2412,10 @@
         <v>135.1352971154112</v>
       </c>
       <c r="H24" t="n">
-        <v>90.90868745906511</v>
+        <v>90.90868745906523</v>
       </c>
       <c r="I24" t="n">
-        <v>13.36800401270659</v>
+        <v>13.36800401270703</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>130.6664522335282</v>
+        <v>130.6664522335285</v>
       </c>
       <c r="T24" t="n">
         <v>191.2640522740862</v>
@@ -2479,19 +2479,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>135.053389747413</v>
       </c>
       <c r="G25" t="n">
-        <v>166.1396818493028</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>145.7674546533073</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>94.05232337457429</v>
+        <v>94.05232337457477</v>
       </c>
       <c r="S25" t="n">
-        <v>191.7535314455903</v>
+        <v>191.7535314455905</v>
       </c>
       <c r="T25" t="n">
         <v>220.0355000709787</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2180494923551</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>12.59399209368117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2716,16 +2716,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>94.31414135199495</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>61.08019102731622</v>
       </c>
     </row>
     <row r="29">
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>98.78089597338496</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,19 +2998,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>234.9718506267184</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3196,7 +3196,7 @@
         <v>99.45882602797658</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433982</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404356</v>
@@ -3205,7 +3205,7 @@
         <v>97.7798782957282</v>
       </c>
       <c r="I34" t="n">
-        <v>49.3772837912455</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3263,10 +3263,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3284,7 +3284,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3424,22 +3424,22 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C37" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D37" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G37" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I37" t="n">
         <v>49.37728379124552</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S37" t="n">
         <v>142.7938887128493</v>
@@ -3484,7 +3484,7 @@
         <v>205.1625067052354</v>
       </c>
       <c r="W37" t="n">
-        <v>239.5478617179984</v>
+        <v>239.547861717999</v>
       </c>
       <c r="X37" t="n">
         <v>178.7345187704446</v>
@@ -3521,7 +3521,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396202</v>
@@ -3600,7 +3600,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247654</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3667,19 +3667,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797657</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433864</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404356</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572818</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145473</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3724,7 +3724,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X40" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y40" t="n">
         <v>171.6095167335022</v>
@@ -3797,7 +3797,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3837,7 +3837,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D43" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -4141,16 +4141,16 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G46" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I46" t="n">
         <v>49.37728379124552</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1871.983983358263</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C2" t="n">
-        <v>1503.021466417851</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D2" t="n">
-        <v>1144.7557678111</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E2" t="n">
-        <v>758.9675152128561</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>347.9816104232486</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2569.476614681668</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2350.841947653731</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.752638628377</v>
+        <v>2350.841947653731</v>
       </c>
       <c r="V2" t="n">
-        <v>2224.752638628377</v>
+        <v>2019.77906031016</v>
       </c>
       <c r="W2" t="n">
-        <v>1871.983983358263</v>
+        <v>1965.334517077867</v>
       </c>
       <c r="X2" t="n">
-        <v>1871.983983358263</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="Y2" t="n">
-        <v>1871.983983358263</v>
+        <v>1591.868758816787</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4416,16 +4416,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>391.878965009939</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>391.878965009939</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>391.878965009939</v>
+        <v>632.5171804765284</v>
       </c>
       <c r="V4" t="n">
-        <v>391.878965009939</v>
+        <v>632.5171804765284</v>
       </c>
       <c r="W4" t="n">
-        <v>391.878965009939</v>
+        <v>632.5171804765284</v>
       </c>
       <c r="X4" t="n">
-        <v>391.878965009939</v>
+        <v>404.5276295785111</v>
       </c>
       <c r="Y4" t="n">
-        <v>391.878965009939</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1299.526533804879</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C5" t="n">
-        <v>1299.526533804879</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D5" t="n">
-        <v>941.2608351981287</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
-        <v>555.4725825998845</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4565,10 +4565,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224079</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2479.927136187699</v>
       </c>
       <c r="V5" t="n">
-        <v>2212.181128500977</v>
+        <v>2479.927136187699</v>
       </c>
       <c r="W5" t="n">
-        <v>1859.412473230863</v>
+        <v>2127.158480917584</v>
       </c>
       <c r="X5" t="n">
-        <v>1485.946714969783</v>
+        <v>1753.692722656504</v>
       </c>
       <c r="Y5" t="n">
-        <v>1485.946714969783</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="6">
@@ -4644,16 +4644,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2180.423733649864</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="C7" t="n">
-        <v>2180.423733649864</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="D7" t="n">
-        <v>2180.423733649864</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="E7" t="n">
-        <v>2180.423733649864</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="F7" t="n">
-        <v>2180.423733649864</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="G7" t="n">
-        <v>2180.423733649864</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H7" t="n">
-        <v>2180.423733649864</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>2044.094822748512</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>2697.149091018222</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>2697.149091018222</v>
+        <v>607.965212903889</v>
       </c>
       <c r="S7" t="n">
-        <v>2697.149091018222</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="T7" t="n">
-        <v>2469.840903686824</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="U7" t="n">
-        <v>2469.840903686824</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="V7" t="n">
-        <v>2469.840903686824</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="W7" t="n">
-        <v>2180.423733649864</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="X7" t="n">
-        <v>2180.423733649864</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="Y7" t="n">
-        <v>2180.423733649864</v>
+        <v>393.6767897220517</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1745.334734821698</v>
+        <v>1837.140060718707</v>
       </c>
       <c r="C8" t="n">
-        <v>1376.372217881286</v>
+        <v>1468.177543778296</v>
       </c>
       <c r="D8" t="n">
-        <v>1018.106519274536</v>
+        <v>1109.911845171545</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762914</v>
+        <v>724.1235925733008</v>
       </c>
       <c r="F8" t="n">
         <v>625.3727659270879</v>
@@ -4799,22 +4799,22 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="V8" t="n">
-        <v>2247.308246834948</v>
+        <v>2189.908715988821</v>
       </c>
       <c r="W8" t="n">
-        <v>2247.308246834948</v>
+        <v>1837.140060718707</v>
       </c>
       <c r="X8" t="n">
-        <v>2247.308246834948</v>
+        <v>1837.140060718707</v>
       </c>
       <c r="Y8" t="n">
-        <v>2131.93457488582</v>
+        <v>1837.140060718707</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4878,46 +4878,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>210.7222632714565</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="C10" t="n">
-        <v>210.7222632714565</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="D10" t="n">
-        <v>210.7222632714565</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E10" t="n">
-        <v>210.7222632714565</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F10" t="n">
-        <v>99.5995062532301</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>659.7921208627627</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>432.4839335313644</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>432.4839335313644</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>432.4839335313644</v>
       </c>
       <c r="W10" t="n">
-        <v>438.7118141694738</v>
+        <v>432.4839335313644</v>
       </c>
       <c r="X10" t="n">
-        <v>210.7222632714565</v>
+        <v>432.4839335313644</v>
       </c>
       <c r="Y10" t="n">
-        <v>210.7222632714565</v>
+        <v>211.6913543878343</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2429.652577797168</v>
+        <v>2364.262517753844</v>
       </c>
       <c r="C11" t="n">
-        <v>2060.690060856757</v>
+        <v>1995.300000813432</v>
       </c>
       <c r="D11" t="n">
-        <v>1702.424362250006</v>
+        <v>1637.034302206682</v>
       </c>
       <c r="E11" t="n">
-        <v>1316.636109651762</v>
+        <v>1251.246049608437</v>
       </c>
       <c r="F11" t="n">
-        <v>905.6502048621542</v>
+        <v>840.26014481883</v>
       </c>
       <c r="G11" t="n">
-        <v>489.4725344065324</v>
+        <v>424.0824743632082</v>
       </c>
       <c r="H11" t="n">
         <v>180.5700966115925</v>
       </c>
       <c r="I11" t="n">
-        <v>95.96419221147464</v>
+        <v>95.96419221147468</v>
       </c>
       <c r="J11" t="n">
-        <v>360.311484111895</v>
+        <v>360.3114841118954</v>
       </c>
       <c r="K11" t="n">
-        <v>877.244353952035</v>
+        <v>877.2443539520355</v>
       </c>
       <c r="L11" t="n">
-        <v>1570.821916862106</v>
+        <v>1570.821916862107</v>
       </c>
       <c r="M11" t="n">
-        <v>2359.167139161802</v>
+        <v>2359.167139161803</v>
       </c>
       <c r="N11" t="n">
-        <v>3145.636613802048</v>
+        <v>3145.636613802049</v>
       </c>
       <c r="O11" t="n">
-        <v>3843.089799225527</v>
+        <v>3843.089799225529</v>
       </c>
       <c r="P11" t="n">
-        <v>4400.675573927198</v>
+        <v>4400.675573927199</v>
       </c>
       <c r="Q11" t="n">
-        <v>4742.177509736687</v>
+        <v>4742.177509736689</v>
       </c>
       <c r="R11" t="n">
-        <v>4798.209610573732</v>
+        <v>4798.209610573734</v>
       </c>
       <c r="S11" t="n">
-        <v>4662.733734500488</v>
+        <v>4662.73373450049</v>
       </c>
       <c r="T11" t="n">
-        <v>4451.917885018754</v>
+        <v>4451.917885018755</v>
       </c>
       <c r="U11" t="n">
-        <v>4263.689050711867</v>
+        <v>4198.298990668543</v>
       </c>
       <c r="V11" t="n">
-        <v>3932.626163368296</v>
+        <v>3867.236103324972</v>
       </c>
       <c r="W11" t="n">
-        <v>3579.857508098182</v>
+        <v>3514.467448054857</v>
       </c>
       <c r="X11" t="n">
-        <v>3206.391749837102</v>
+        <v>3141.001689793778</v>
       </c>
       <c r="Y11" t="n">
-        <v>2816.25241786129</v>
+        <v>2750.862357817966</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>125.1033607811196</v>
       </c>
       <c r="I12" t="n">
-        <v>95.96419221147464</v>
+        <v>95.96419221147468</v>
       </c>
       <c r="J12" t="n">
-        <v>134.8841236371109</v>
+        <v>134.8841236371111</v>
       </c>
       <c r="K12" t="n">
-        <v>279.559310243919</v>
+        <v>541.379894886372</v>
       </c>
       <c r="L12" t="n">
-        <v>520.4154938188801</v>
+        <v>782.2360784613334</v>
       </c>
       <c r="M12" t="n">
-        <v>1281.888180883376</v>
+        <v>1082.66075241333</v>
       </c>
       <c r="N12" t="n">
-        <v>1743.433656184605</v>
+        <v>1859.675626344293</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.498769314603</v>
+        <v>2132.740739474291</v>
       </c>
       <c r="P12" t="n">
-        <v>2531.602671157309</v>
+        <v>2332.56650036346</v>
       </c>
       <c r="Q12" t="n">
-        <v>2615.261703988756</v>
+        <v>2624.202048053398</v>
       </c>
       <c r="R12" t="n">
         <v>2624.202048053398</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>95.96419221147464</v>
+        <v>575.9513182584652</v>
       </c>
       <c r="C13" t="n">
-        <v>95.96419221147464</v>
+        <v>407.0151353305583</v>
       </c>
       <c r="D13" t="n">
-        <v>95.96419221147464</v>
+        <v>407.0151353305583</v>
       </c>
       <c r="E13" t="n">
-        <v>95.96419221147464</v>
+        <v>407.0151353305583</v>
       </c>
       <c r="F13" t="n">
-        <v>95.96419221147464</v>
+        <v>407.0151353305583</v>
       </c>
       <c r="G13" t="n">
-        <v>95.96419221147464</v>
+        <v>238.8165349269877</v>
       </c>
       <c r="H13" t="n">
-        <v>95.96419221147464</v>
+        <v>95.96419221147468</v>
       </c>
       <c r="I13" t="n">
-        <v>95.96419221147464</v>
+        <v>95.96419221147468</v>
       </c>
       <c r="J13" t="n">
         <v>106.7338304659219</v>
       </c>
       <c r="K13" t="n">
-        <v>254.2684911337128</v>
+        <v>254.268491133713</v>
       </c>
       <c r="L13" t="n">
-        <v>498.5884969855837</v>
+        <v>498.5884969855839</v>
       </c>
       <c r="M13" t="n">
-        <v>766.5788100583129</v>
+        <v>766.5788100583134</v>
       </c>
       <c r="N13" t="n">
         <v>1033.631528895828</v>
       </c>
       <c r="O13" t="n">
-        <v>1264.281642962851</v>
+        <v>1264.281642962852</v>
       </c>
       <c r="P13" t="n">
-        <v>1438.121979356796</v>
+        <v>1438.121979356797</v>
       </c>
       <c r="Q13" t="n">
-        <v>1475.044937267442</v>
+        <v>1475.044937267443</v>
       </c>
       <c r="R13" t="n">
-        <v>1475.044937267442</v>
+        <v>1475.044937267443</v>
       </c>
       <c r="S13" t="n">
-        <v>1274.719242521712</v>
+        <v>1274.719242521713</v>
       </c>
       <c r="T13" t="n">
-        <v>1050.834363674909</v>
+        <v>1274.719242521713</v>
       </c>
       <c r="U13" t="n">
-        <v>1050.834363674909</v>
+        <v>985.5893339867223</v>
       </c>
       <c r="V13" t="n">
-        <v>796.1498754690225</v>
+        <v>985.5893339867223</v>
       </c>
       <c r="W13" t="n">
-        <v>726.3947870832618</v>
+        <v>985.5893339867223</v>
       </c>
       <c r="X13" t="n">
-        <v>498.4052361852445</v>
+        <v>757.599783088705</v>
       </c>
       <c r="Y13" t="n">
-        <v>277.6126570417143</v>
+        <v>757.599783088705</v>
       </c>
     </row>
     <row r="14">
@@ -5258,67 +5258,67 @@
         <v>2018.425404404226</v>
       </c>
       <c r="D14" t="n">
-        <v>1660.159705797475</v>
+        <v>1660.159705797476</v>
       </c>
       <c r="E14" t="n">
-        <v>1274.371453199231</v>
+        <v>1274.371453199232</v>
       </c>
       <c r="F14" t="n">
-        <v>863.3855484096233</v>
+        <v>863.3855484096241</v>
       </c>
       <c r="G14" t="n">
-        <v>448.0566723599768</v>
+        <v>448.0566723599777</v>
       </c>
       <c r="H14" t="n">
-        <v>147.8469502752311</v>
+        <v>147.8469502752319</v>
       </c>
       <c r="I14" t="n">
-        <v>95.96419221147464</v>
+        <v>95.96419221147468</v>
       </c>
       <c r="J14" t="n">
-        <v>263.5125960578233</v>
+        <v>430.9182450781748</v>
       </c>
       <c r="K14" t="n">
-        <v>565.3627392263465</v>
+        <v>1053.672346692149</v>
       </c>
       <c r="L14" t="n">
-        <v>1390.220897505263</v>
+        <v>1817.471093796667</v>
       </c>
       <c r="M14" t="n">
-        <v>1879.622679057568</v>
+        <v>2306.872875348969</v>
       </c>
       <c r="N14" t="n">
-        <v>2808.807497759418</v>
+        <v>2808.807497759429</v>
       </c>
       <c r="O14" t="n">
-        <v>3646.427046714113</v>
+        <v>3646.427046714121</v>
       </c>
       <c r="P14" t="n">
-        <v>4323.641569826246</v>
+        <v>4323.641569826252</v>
       </c>
       <c r="Q14" t="n">
-        <v>4754.979713630522</v>
+        <v>4754.979713630525</v>
       </c>
       <c r="R14" t="n">
-        <v>4798.209610573732</v>
+        <v>4798.209610573734</v>
       </c>
       <c r="S14" t="n">
-        <v>4682.075637026649</v>
+        <v>4682.07563702665</v>
       </c>
       <c r="T14" t="n">
-        <v>4474.975385057071</v>
+        <v>4474.975385057072</v>
       </c>
       <c r="U14" t="n">
         <v>4221.424394259337</v>
       </c>
       <c r="V14" t="n">
-        <v>3890.361506915765</v>
+        <v>3890.361506915766</v>
       </c>
       <c r="W14" t="n">
-        <v>3537.592851645651</v>
+        <v>3537.592851645652</v>
       </c>
       <c r="X14" t="n">
-        <v>3164.127093384571</v>
+        <v>3164.127093384572</v>
       </c>
       <c r="Y14" t="n">
         <v>2773.98776140876</v>
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>966.9539356346285</v>
+        <v>966.9539356346289</v>
       </c>
       <c r="C15" t="n">
-        <v>792.5009063535015</v>
+        <v>792.5009063535019</v>
       </c>
       <c r="D15" t="n">
-        <v>643.5664966922502</v>
+        <v>643.5664966922507</v>
       </c>
       <c r="E15" t="n">
-        <v>484.3290416867947</v>
+        <v>484.3290416867951</v>
       </c>
       <c r="F15" t="n">
-        <v>337.7944837136796</v>
+        <v>337.7944837136801</v>
       </c>
       <c r="G15" t="n">
-        <v>201.2941835971026</v>
+        <v>201.2941835971031</v>
       </c>
       <c r="H15" t="n">
-        <v>109.4672265677439</v>
+        <v>109.4672265677443</v>
       </c>
       <c r="I15" t="n">
-        <v>95.96419221147464</v>
+        <v>95.96419221147468</v>
       </c>
       <c r="J15" t="n">
-        <v>176.9370267638916</v>
+        <v>176.9370267638907</v>
       </c>
       <c r="K15" t="n">
-        <v>393.4873229022294</v>
+        <v>599.9081695135972</v>
       </c>
       <c r="L15" t="n">
-        <v>730.9884611817669</v>
+        <v>937.4093077931325</v>
       </c>
       <c r="M15" t="n">
-        <v>1350.614085437337</v>
+        <v>1350.614085437347</v>
       </c>
       <c r="N15" t="n">
-        <v>1789.163808932354</v>
+        <v>1789.163808932361</v>
       </c>
       <c r="O15" t="n">
-        <v>2168.131333088696</v>
+        <v>2168.131333088701</v>
       </c>
       <c r="P15" t="n">
-        <v>2452.953115347986</v>
+        <v>2452.953115347988</v>
       </c>
       <c r="Q15" t="n">
-        <v>2593.429737548628</v>
+        <v>2593.429737548629</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.429737548628</v>
+        <v>2593.429737548629</v>
       </c>
       <c r="S15" t="n">
-        <v>2461.443422161225</v>
+        <v>2461.443422161226</v>
       </c>
       <c r="T15" t="n">
         <v>2268.247409763159</v>
       </c>
       <c r="U15" t="n">
-        <v>2040.170536585127</v>
+        <v>2040.170536585128</v>
       </c>
       <c r="V15" t="n">
         <v>1805.018428353385</v>
       </c>
       <c r="W15" t="n">
-        <v>1550.781071625183</v>
+        <v>1550.781071625184</v>
       </c>
       <c r="X15" t="n">
-        <v>1342.92957141965</v>
+        <v>1342.929571419651</v>
       </c>
       <c r="Y15" t="n">
-        <v>1135.169272654696</v>
+        <v>1135.169272654697</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>897.2943660982527</v>
+        <v>412.8134687217747</v>
       </c>
       <c r="C16" t="n">
-        <v>855.941586343114</v>
+        <v>243.8772857938678</v>
       </c>
       <c r="D16" t="n">
-        <v>705.8249469307782</v>
+        <v>243.8772857938678</v>
       </c>
       <c r="E16" t="n">
-        <v>557.9118533483851</v>
+        <v>95.96419221147468</v>
       </c>
       <c r="F16" t="n">
-        <v>411.0219058504748</v>
+        <v>95.96419221147468</v>
       </c>
       <c r="G16" t="n">
-        <v>243.2040453966335</v>
+        <v>95.96419221147468</v>
       </c>
       <c r="H16" t="n">
-        <v>95.96419221147464</v>
+        <v>95.96419221147468</v>
       </c>
       <c r="I16" t="n">
-        <v>95.96419221147464</v>
+        <v>95.96419221147468</v>
       </c>
       <c r="J16" t="n">
-        <v>133.1164704543249</v>
+        <v>133.1164704543225</v>
       </c>
       <c r="K16" t="n">
-        <v>324.0059130498216</v>
+        <v>324.0059130498183</v>
       </c>
       <c r="L16" t="n">
-        <v>623.8051132401665</v>
+        <v>623.8051132401621</v>
       </c>
       <c r="M16" t="n">
-        <v>950.2904579857777</v>
+        <v>950.2904579857719</v>
       </c>
       <c r="N16" t="n">
-        <v>1274.447327385818</v>
+        <v>1274.447327385811</v>
       </c>
       <c r="O16" t="n">
-        <v>1557.842367071931</v>
+        <v>1557.842367071923</v>
       </c>
       <c r="P16" t="n">
-        <v>1776.815099300476</v>
+        <v>1776.815099300467</v>
       </c>
       <c r="Q16" t="n">
-        <v>1844.98538869282</v>
+        <v>1844.985388692811</v>
       </c>
       <c r="R16" t="n">
-        <v>1749.983041849816</v>
+        <v>1844.985388692811</v>
       </c>
       <c r="S16" t="n">
-        <v>1749.983041849816</v>
+        <v>1651.294952889184</v>
       </c>
       <c r="T16" t="n">
-        <v>1527.72496097004</v>
+        <v>1429.036872009407</v>
       </c>
       <c r="U16" t="n">
-        <v>1527.72496097004</v>
+        <v>1139.927731108039</v>
       </c>
       <c r="V16" t="n">
-        <v>1527.72496097004</v>
+        <v>930.2201896567526</v>
       </c>
       <c r="W16" t="n">
-        <v>1527.72496097004</v>
+        <v>640.8030196197921</v>
       </c>
       <c r="X16" t="n">
-        <v>1299.735410072022</v>
+        <v>412.8134687217747</v>
       </c>
       <c r="Y16" t="n">
-        <v>1078.942830928492</v>
+        <v>412.8134687217747</v>
       </c>
     </row>
     <row r="17">
@@ -5504,46 +5504,46 @@
         <v>863.3855484096242</v>
       </c>
       <c r="G17" t="n">
-        <v>448.0566723599767</v>
+        <v>448.0566723599777</v>
       </c>
       <c r="H17" t="n">
-        <v>147.8469502752311</v>
+        <v>147.8469502752318</v>
       </c>
       <c r="I17" t="n">
-        <v>95.96419221147464</v>
+        <v>95.96419221147468</v>
       </c>
       <c r="J17" t="n">
-        <v>263.5125960578233</v>
+        <v>263.5125960578218</v>
       </c>
       <c r="K17" t="n">
-        <v>886.2666976717996</v>
+        <v>886.2666976717958</v>
       </c>
       <c r="L17" t="n">
-        <v>1711.124855950716</v>
+        <v>1711.124855950709</v>
       </c>
       <c r="M17" t="n">
-        <v>2645.545035660925</v>
+        <v>2645.545035660915</v>
       </c>
       <c r="N17" t="n">
-        <v>3147.47965807139</v>
+        <v>3580.45311323924</v>
       </c>
       <c r="O17" t="n">
-        <v>3899.948512129628</v>
+        <v>4175.199608557195</v>
       </c>
       <c r="P17" t="n">
-        <v>4258.582314151994</v>
+        <v>4533.833410579557</v>
       </c>
       <c r="Q17" t="n">
-        <v>4689.920457956269</v>
+        <v>4754.979713630525</v>
       </c>
       <c r="R17" t="n">
-        <v>4798.209610573732</v>
+        <v>4798.209610573734</v>
       </c>
       <c r="S17" t="n">
-        <v>4682.075637026649</v>
+        <v>4682.07563702665</v>
       </c>
       <c r="T17" t="n">
-        <v>4474.975385057071</v>
+        <v>4474.975385057072</v>
       </c>
       <c r="U17" t="n">
         <v>4221.424394259336</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>966.9539356346285</v>
+        <v>966.9539356346289</v>
       </c>
       <c r="C18" t="n">
-        <v>792.5009063535015</v>
+        <v>792.5009063535019</v>
       </c>
       <c r="D18" t="n">
-        <v>643.5664966922502</v>
+        <v>643.5664966922507</v>
       </c>
       <c r="E18" t="n">
-        <v>484.3290416867947</v>
+        <v>484.3290416867951</v>
       </c>
       <c r="F18" t="n">
-        <v>337.7944837136796</v>
+        <v>337.7944837136801</v>
       </c>
       <c r="G18" t="n">
-        <v>201.2941835971026</v>
+        <v>201.2941835971031</v>
       </c>
       <c r="H18" t="n">
-        <v>109.4672265677439</v>
+        <v>109.4672265677443</v>
       </c>
       <c r="I18" t="n">
-        <v>95.96419221147464</v>
+        <v>95.96419221147468</v>
       </c>
       <c r="J18" t="n">
-        <v>176.9370267638916</v>
+        <v>176.9370267638907</v>
       </c>
       <c r="K18" t="n">
-        <v>393.4873229022294</v>
+        <v>393.487322902227</v>
       </c>
       <c r="L18" t="n">
-        <v>730.9884611817669</v>
+        <v>730.9884611817622</v>
       </c>
       <c r="M18" t="n">
-        <v>1144.193238825984</v>
+        <v>1144.193238825976</v>
       </c>
       <c r="N18" t="n">
-        <v>1582.742962321001</v>
+        <v>1582.742962320991</v>
       </c>
       <c r="O18" t="n">
-        <v>1961.710486477343</v>
+        <v>1961.710486477331</v>
       </c>
       <c r="P18" t="n">
-        <v>2452.953115347986</v>
+        <v>2246.532268736619</v>
       </c>
       <c r="Q18" t="n">
-        <v>2593.429737548628</v>
+        <v>2593.429737548629</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.429737548628</v>
+        <v>2593.429737548629</v>
       </c>
       <c r="S18" t="n">
-        <v>2461.443422161225</v>
+        <v>2461.443422161226</v>
       </c>
       <c r="T18" t="n">
         <v>2268.247409763159</v>
       </c>
       <c r="U18" t="n">
-        <v>2040.170536585127</v>
+        <v>2040.170536585128</v>
       </c>
       <c r="V18" t="n">
         <v>1805.018428353385</v>
       </c>
       <c r="W18" t="n">
-        <v>1550.781071625183</v>
+        <v>1550.781071625184</v>
       </c>
       <c r="X18" t="n">
-        <v>1342.92957141965</v>
+        <v>1342.929571419651</v>
       </c>
       <c r="Y18" t="n">
-        <v>1135.169272654696</v>
+        <v>1135.169272654697</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>582.8348750055585</v>
+        <v>680.7428461861913</v>
       </c>
       <c r="C19" t="n">
-        <v>413.8986920776516</v>
+        <v>511.8066632582843</v>
       </c>
       <c r="D19" t="n">
-        <v>263.7820526653159</v>
+        <v>511.8066632582843</v>
       </c>
       <c r="E19" t="n">
-        <v>263.7820526653159</v>
+        <v>511.8066632582843</v>
       </c>
       <c r="F19" t="n">
-        <v>263.7820526653159</v>
+        <v>511.8066632582843</v>
       </c>
       <c r="G19" t="n">
-        <v>95.96419221147464</v>
+        <v>343.9888028044431</v>
       </c>
       <c r="H19" t="n">
-        <v>95.96419221147464</v>
+        <v>196.7489496192842</v>
       </c>
       <c r="I19" t="n">
-        <v>95.96419221147464</v>
+        <v>95.96419221147468</v>
       </c>
       <c r="J19" t="n">
-        <v>133.116470454323</v>
+        <v>133.1164704543225</v>
       </c>
       <c r="K19" t="n">
-        <v>324.0059130498197</v>
+        <v>324.0059130498183</v>
       </c>
       <c r="L19" t="n">
-        <v>623.8051132401647</v>
+        <v>623.8051132401621</v>
       </c>
       <c r="M19" t="n">
-        <v>950.2904579857759</v>
+        <v>950.2904579857719</v>
       </c>
       <c r="N19" t="n">
-        <v>1274.447327385816</v>
+        <v>1274.447327385811</v>
       </c>
       <c r="O19" t="n">
-        <v>1557.84236707193</v>
+        <v>1557.842367071923</v>
       </c>
       <c r="P19" t="n">
-        <v>1776.815099300474</v>
+        <v>1776.815099300467</v>
       </c>
       <c r="Q19" t="n">
-        <v>1844.985388692819</v>
+        <v>1844.985388692811</v>
       </c>
       <c r="R19" t="n">
-        <v>1844.985388692819</v>
+        <v>1844.985388692811</v>
       </c>
       <c r="S19" t="n">
-        <v>1651.294952889192</v>
+        <v>1651.294952889184</v>
       </c>
       <c r="T19" t="n">
-        <v>1429.036872009416</v>
+        <v>1651.294952889184</v>
       </c>
       <c r="U19" t="n">
-        <v>1139.927731108047</v>
+        <v>1445.637083572569</v>
       </c>
       <c r="V19" t="n">
-        <v>885.24324290216</v>
+        <v>1190.952595366682</v>
       </c>
       <c r="W19" t="n">
-        <v>810.8244259035758</v>
+        <v>901.5354253297214</v>
       </c>
       <c r="X19" t="n">
-        <v>582.8348750055585</v>
+        <v>901.5354253297214</v>
       </c>
       <c r="Y19" t="n">
-        <v>582.8348750055585</v>
+        <v>680.7428461861913</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2387.387921344636</v>
+        <v>2387.387921344638</v>
       </c>
       <c r="C20" t="n">
-        <v>2018.425404404225</v>
+        <v>2018.425404404227</v>
       </c>
       <c r="D20" t="n">
-        <v>1660.159705797475</v>
+        <v>1660.159705797476</v>
       </c>
       <c r="E20" t="n">
-        <v>1274.37145319923</v>
+        <v>1274.371453199232</v>
       </c>
       <c r="F20" t="n">
-        <v>863.3855484096234</v>
+        <v>863.3855484096243</v>
       </c>
       <c r="G20" t="n">
-        <v>448.0566723599768</v>
+        <v>448.0566723599777</v>
       </c>
       <c r="H20" t="n">
         <v>147.8469502752318</v>
       </c>
       <c r="I20" t="n">
-        <v>95.96419221147464</v>
+        <v>95.96419221147468</v>
       </c>
       <c r="J20" t="n">
-        <v>430.9182450781764</v>
+        <v>263.5125960578218</v>
       </c>
       <c r="K20" t="n">
-        <v>1053.672346692153</v>
+        <v>886.2666976717958</v>
       </c>
       <c r="L20" t="n">
-        <v>1878.530504971069</v>
+        <v>1711.124855950709</v>
       </c>
       <c r="M20" t="n">
-        <v>2779.664161474281</v>
+        <v>2645.545035660915</v>
       </c>
       <c r="N20" t="n">
-        <v>3714.572239052609</v>
+        <v>3580.45311323924</v>
       </c>
       <c r="O20" t="n">
-        <v>4175.199608557186</v>
+        <v>4175.199608557193</v>
       </c>
       <c r="P20" t="n">
-        <v>4533.833410579552</v>
+        <v>4533.833410579556</v>
       </c>
       <c r="Q20" t="n">
-        <v>4754.979713630522</v>
+        <v>4754.979713630523</v>
       </c>
       <c r="R20" t="n">
         <v>4798.209610573732</v>
       </c>
       <c r="S20" t="n">
-        <v>4682.075637026648</v>
+        <v>4682.075637026649</v>
       </c>
       <c r="T20" t="n">
         <v>4474.975385057071</v>
       </c>
       <c r="U20" t="n">
-        <v>4221.424394259335</v>
+        <v>4221.424394259337</v>
       </c>
       <c r="V20" t="n">
-        <v>3890.361506915764</v>
+        <v>3890.361506915766</v>
       </c>
       <c r="W20" t="n">
-        <v>3537.59285164565</v>
+        <v>3537.592851645652</v>
       </c>
       <c r="X20" t="n">
-        <v>3164.12709338457</v>
+        <v>3164.127093384572</v>
       </c>
       <c r="Y20" t="n">
-        <v>2773.987761408758</v>
+        <v>2773.98776140876</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>966.9539356346285</v>
+        <v>966.9539356346289</v>
       </c>
       <c r="C21" t="n">
-        <v>792.5009063535015</v>
+        <v>792.5009063535019</v>
       </c>
       <c r="D21" t="n">
-        <v>643.5664966922502</v>
+        <v>643.5664966922507</v>
       </c>
       <c r="E21" t="n">
-        <v>484.3290416867947</v>
+        <v>484.3290416867951</v>
       </c>
       <c r="F21" t="n">
-        <v>337.7944837136796</v>
+        <v>337.7944837136801</v>
       </c>
       <c r="G21" t="n">
-        <v>201.2941835971026</v>
+        <v>201.2941835971031</v>
       </c>
       <c r="H21" t="n">
-        <v>109.4672265677439</v>
+        <v>109.4672265677443</v>
       </c>
       <c r="I21" t="n">
-        <v>95.96419221147464</v>
+        <v>95.96419221147468</v>
       </c>
       <c r="J21" t="n">
-        <v>176.9370267638916</v>
+        <v>176.9370267638907</v>
       </c>
       <c r="K21" t="n">
-        <v>393.4873229022294</v>
+        <v>393.487322902227</v>
       </c>
       <c r="L21" t="n">
-        <v>730.9884611817669</v>
+        <v>730.9884611817622</v>
       </c>
       <c r="M21" t="n">
-        <v>1144.193238825984</v>
+        <v>1144.193238825976</v>
       </c>
       <c r="N21" t="n">
-        <v>1582.742962321001</v>
+        <v>1789.163808932361</v>
       </c>
       <c r="O21" t="n">
-        <v>2168.131333088696</v>
+        <v>2168.131333088701</v>
       </c>
       <c r="P21" t="n">
-        <v>2452.953115347986</v>
+        <v>2452.953115347988</v>
       </c>
       <c r="Q21" t="n">
-        <v>2593.429737548628</v>
+        <v>2593.429737548629</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.429737548628</v>
+        <v>2593.429737548629</v>
       </c>
       <c r="S21" t="n">
-        <v>2461.443422161225</v>
+        <v>2461.443422161226</v>
       </c>
       <c r="T21" t="n">
         <v>2268.247409763159</v>
       </c>
       <c r="U21" t="n">
-        <v>2040.170536585127</v>
+        <v>2040.170536585128</v>
       </c>
       <c r="V21" t="n">
         <v>1805.018428353385</v>
       </c>
       <c r="W21" t="n">
-        <v>1550.781071625183</v>
+        <v>1550.781071625184</v>
       </c>
       <c r="X21" t="n">
-        <v>1342.92957141965</v>
+        <v>1342.929571419651</v>
       </c>
       <c r="Y21" t="n">
-        <v>1135.169272654696</v>
+        <v>1135.169272654697</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>393.9939252062035</v>
+        <v>365.6851325471911</v>
       </c>
       <c r="C22" t="n">
-        <v>393.9939252062035</v>
+        <v>196.7489496192842</v>
       </c>
       <c r="D22" t="n">
-        <v>243.8772857938678</v>
+        <v>196.7489496192842</v>
       </c>
       <c r="E22" t="n">
-        <v>95.96419221147464</v>
+        <v>196.7489496192842</v>
       </c>
       <c r="F22" t="n">
-        <v>95.96419221147464</v>
+        <v>196.7489496192842</v>
       </c>
       <c r="G22" t="n">
-        <v>95.96419221147464</v>
+        <v>196.7489496192842</v>
       </c>
       <c r="H22" t="n">
-        <v>95.96419221147464</v>
+        <v>196.7489496192842</v>
       </c>
       <c r="I22" t="n">
-        <v>95.96419221147464</v>
+        <v>95.96419221147468</v>
       </c>
       <c r="J22" t="n">
-        <v>133.116470454323</v>
+        <v>133.1164704543225</v>
       </c>
       <c r="K22" t="n">
-        <v>324.0059130498197</v>
+        <v>324.0059130498183</v>
       </c>
       <c r="L22" t="n">
-        <v>623.8051132401647</v>
+        <v>623.8051132401621</v>
       </c>
       <c r="M22" t="n">
-        <v>950.2904579857759</v>
+        <v>950.2904579857719</v>
       </c>
       <c r="N22" t="n">
-        <v>1274.447327385816</v>
+        <v>1274.447327385811</v>
       </c>
       <c r="O22" t="n">
-        <v>1557.84236707193</v>
+        <v>1557.842367071923</v>
       </c>
       <c r="P22" t="n">
-        <v>1776.815099300474</v>
+        <v>1776.815099300467</v>
       </c>
       <c r="Q22" t="n">
-        <v>1844.985388692819</v>
+        <v>1844.985388692811</v>
       </c>
       <c r="R22" t="n">
-        <v>1844.985388692819</v>
+        <v>1844.985388692811</v>
       </c>
       <c r="S22" t="n">
-        <v>1844.985388692819</v>
+        <v>1844.985388692811</v>
       </c>
       <c r="T22" t="n">
-        <v>1675.986854391967</v>
+        <v>1622.727307813034</v>
       </c>
       <c r="U22" t="n">
-        <v>1386.877713490599</v>
+        <v>1333.618166911665</v>
       </c>
       <c r="V22" t="n">
-        <v>1132.193225284712</v>
+        <v>1078.933678705778</v>
       </c>
       <c r="W22" t="n">
-        <v>842.7760552477509</v>
+        <v>814.4672625887385</v>
       </c>
       <c r="X22" t="n">
-        <v>614.7865043497336</v>
+        <v>586.4777116907212</v>
       </c>
       <c r="Y22" t="n">
-        <v>393.9939252062035</v>
+        <v>365.6851325471911</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5966,70 @@
         <v>2387.387921344638</v>
       </c>
       <c r="C23" t="n">
-        <v>2018.425404404226</v>
+        <v>2018.425404404227</v>
       </c>
       <c r="D23" t="n">
-        <v>1660.159705797475</v>
+        <v>1660.159705797476</v>
       </c>
       <c r="E23" t="n">
-        <v>1274.371453199231</v>
+        <v>1274.371453199232</v>
       </c>
       <c r="F23" t="n">
-        <v>863.3855484096233</v>
+        <v>863.3855484096252</v>
       </c>
       <c r="G23" t="n">
-        <v>448.0566723599768</v>
+        <v>448.0566723599786</v>
       </c>
       <c r="H23" t="n">
-        <v>147.8469502752311</v>
+        <v>147.8469502752327</v>
       </c>
       <c r="I23" t="n">
-        <v>95.96419221147464</v>
+        <v>95.96419221147468</v>
       </c>
       <c r="J23" t="n">
-        <v>430.9182450781764</v>
+        <v>263.5125960578214</v>
       </c>
       <c r="K23" t="n">
-        <v>732.7683882466996</v>
+        <v>886.2666976717946</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.626546525616</v>
+        <v>1711.124855950707</v>
       </c>
       <c r="M23" t="n">
-        <v>2047.028328077921</v>
+        <v>2645.545035660912</v>
       </c>
       <c r="N23" t="n">
-        <v>2981.936405656249</v>
+        <v>3580.453113239237</v>
       </c>
       <c r="O23" t="n">
-        <v>3646.427046714113</v>
+        <v>4175.199608557195</v>
       </c>
       <c r="P23" t="n">
-        <v>4323.641569826246</v>
+        <v>4533.833410579557</v>
       </c>
       <c r="Q23" t="n">
-        <v>4754.979713630521</v>
+        <v>4754.979713630525</v>
       </c>
       <c r="R23" t="n">
-        <v>4798.209610573731</v>
+        <v>4798.209610573734</v>
       </c>
       <c r="S23" t="n">
-        <v>4682.075637026648</v>
+        <v>4682.07563702665</v>
       </c>
       <c r="T23" t="n">
-        <v>4474.975385057071</v>
+        <v>4474.975385057072</v>
       </c>
       <c r="U23" t="n">
-        <v>4221.424394259336</v>
+        <v>4221.424394259337</v>
       </c>
       <c r="V23" t="n">
-        <v>3890.361506915765</v>
+        <v>3890.361506915766</v>
       </c>
       <c r="W23" t="n">
-        <v>3537.592851645651</v>
+        <v>3537.592851645652</v>
       </c>
       <c r="X23" t="n">
-        <v>3164.127093384571</v>
+        <v>3164.127093384572</v>
       </c>
       <c r="Y23" t="n">
         <v>2773.98776140876</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>966.9539356346285</v>
+        <v>966.9539356346291</v>
       </c>
       <c r="C24" t="n">
-        <v>792.5009063535015</v>
+        <v>792.5009063535022</v>
       </c>
       <c r="D24" t="n">
-        <v>643.5664966922502</v>
+        <v>643.5664966922509</v>
       </c>
       <c r="E24" t="n">
-        <v>484.3290416867947</v>
+        <v>484.3290416867953</v>
       </c>
       <c r="F24" t="n">
-        <v>337.7944837136796</v>
+        <v>337.7944837136803</v>
       </c>
       <c r="G24" t="n">
-        <v>201.2941835971026</v>
+        <v>201.2941835971033</v>
       </c>
       <c r="H24" t="n">
-        <v>109.4672265677439</v>
+        <v>109.4672265677444</v>
       </c>
       <c r="I24" t="n">
-        <v>95.96419221147464</v>
+        <v>95.96419221147468</v>
       </c>
       <c r="J24" t="n">
-        <v>176.9370267638916</v>
+        <v>176.9370267638905</v>
       </c>
       <c r="K24" t="n">
-        <v>393.4873229022294</v>
+        <v>393.4873229022263</v>
       </c>
       <c r="L24" t="n">
-        <v>730.9884611817669</v>
+        <v>730.9884611817608</v>
       </c>
       <c r="M24" t="n">
-        <v>1144.193238825984</v>
+        <v>1144.193238825974</v>
       </c>
       <c r="N24" t="n">
-        <v>1582.742962321001</v>
+        <v>1582.742962320988</v>
       </c>
       <c r="O24" t="n">
-        <v>2168.131333088696</v>
+        <v>1961.710486477327</v>
       </c>
       <c r="P24" t="n">
-        <v>2452.953115347986</v>
+        <v>2246.532268736614</v>
       </c>
       <c r="Q24" t="n">
-        <v>2593.429737548628</v>
+        <v>2593.429737548629</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.429737548628</v>
+        <v>2593.429737548629</v>
       </c>
       <c r="S24" t="n">
-        <v>2461.443422161225</v>
+        <v>2461.443422161226</v>
       </c>
       <c r="T24" t="n">
         <v>2268.247409763159</v>
       </c>
       <c r="U24" t="n">
-        <v>2040.170536585127</v>
+        <v>2040.170536585128</v>
       </c>
       <c r="V24" t="n">
         <v>1805.018428353385</v>
       </c>
       <c r="W24" t="n">
-        <v>1550.781071625183</v>
+        <v>1550.781071625184</v>
       </c>
       <c r="X24" t="n">
-        <v>1342.92957141965</v>
+        <v>1342.929571419651</v>
       </c>
       <c r="Y24" t="n">
-        <v>1135.169272654696</v>
+        <v>1135.169272654697</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>561.1385452628105</v>
+        <v>380.2948511952951</v>
       </c>
       <c r="C25" t="n">
-        <v>561.1385452628105</v>
+        <v>380.2948511952951</v>
       </c>
       <c r="D25" t="n">
-        <v>411.0219058504748</v>
+        <v>380.2948511952951</v>
       </c>
       <c r="E25" t="n">
-        <v>411.0219058504748</v>
+        <v>232.381757612902</v>
       </c>
       <c r="F25" t="n">
-        <v>411.0219058504748</v>
+        <v>95.96419221147468</v>
       </c>
       <c r="G25" t="n">
-        <v>243.2040453966335</v>
+        <v>95.96419221147468</v>
       </c>
       <c r="H25" t="n">
-        <v>95.96419221147464</v>
+        <v>95.96419221147468</v>
       </c>
       <c r="I25" t="n">
-        <v>95.96419221147464</v>
+        <v>95.96419221147468</v>
       </c>
       <c r="J25" t="n">
-        <v>133.116470454323</v>
+        <v>133.1164704543224</v>
       </c>
       <c r="K25" t="n">
-        <v>324.0059130498197</v>
+        <v>324.0059130498178</v>
       </c>
       <c r="L25" t="n">
-        <v>623.8051132401647</v>
+        <v>623.8051132401612</v>
       </c>
       <c r="M25" t="n">
-        <v>950.2904579857759</v>
+        <v>950.2904579857707</v>
       </c>
       <c r="N25" t="n">
-        <v>1274.447327385816</v>
+        <v>1274.447327385809</v>
       </c>
       <c r="O25" t="n">
-        <v>1557.84236707193</v>
+        <v>1557.842367071921</v>
       </c>
       <c r="P25" t="n">
-        <v>1776.815099300474</v>
+        <v>1776.815099300465</v>
       </c>
       <c r="Q25" t="n">
-        <v>1844.985388692819</v>
+        <v>1844.985388692808</v>
       </c>
       <c r="R25" t="n">
-        <v>1749.983041849814</v>
+        <v>1749.983041849803</v>
       </c>
       <c r="S25" t="n">
-        <v>1556.292606046188</v>
+        <v>1556.292606046176</v>
       </c>
       <c r="T25" t="n">
-        <v>1334.034525166411</v>
+        <v>1334.0345251664</v>
       </c>
       <c r="U25" t="n">
-        <v>1044.925384265042</v>
+        <v>1334.0345251664</v>
       </c>
       <c r="V25" t="n">
-        <v>1044.925384265042</v>
+        <v>1079.350036960513</v>
       </c>
       <c r="W25" t="n">
-        <v>755.5082142280817</v>
+        <v>789.9328669235522</v>
       </c>
       <c r="X25" t="n">
-        <v>755.5082142280817</v>
+        <v>561.9433160255348</v>
       </c>
       <c r="Y25" t="n">
-        <v>742.7870100930502</v>
+        <v>561.9433160255348</v>
       </c>
     </row>
     <row r="26">
@@ -6203,22 +6203,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
@@ -6236,13 +6236,13 @@
         <v>1770.231306037953</v>
       </c>
       <c r="N26" t="n">
-        <v>2749.9835782646</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O26" t="n">
-        <v>3629.948228594054</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P26" t="n">
-        <v>4343.303316041</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
         <v>4653.975400188666</v>
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C27" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390115</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M27" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O27" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V27" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>579.0900014994927</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C28" t="n">
-        <v>410.1538185715858</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D28" t="n">
-        <v>410.1538185715858</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E28" t="n">
-        <v>410.1538185715858</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F28" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
         <v>95.56103444839442</v>
@@ -6409,25 +6409,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1861.076656658244</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1861.076656658244</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1571.973789783888</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>1317.289301578001</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W28" t="n">
-        <v>1027.87213154104</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="X28" t="n">
-        <v>799.8825806430228</v>
+        <v>771.1140605227953</v>
       </c>
       <c r="Y28" t="n">
-        <v>579.0900014994927</v>
+        <v>709.4168978689405</v>
       </c>
     </row>
     <row r="29">
@@ -6455,7 +6455,7 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
@@ -6473,16 +6473,16 @@
         <v>2091.135264483406</v>
       </c>
       <c r="N29" t="n">
-        <v>2877.428556330836</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O29" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>759.6313103540838</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C31" t="n">
-        <v>590.6951274261769</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D31" t="n">
-        <v>440.5784880138411</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E31" t="n">
-        <v>292.665394431448</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F31" t="n">
-        <v>292.665394431448</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G31" t="n">
-        <v>292.665394431448</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6646,25 +6646,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1644.746393431758</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U31" t="n">
-        <v>1644.746393431758</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="V31" t="n">
-        <v>1390.061905225871</v>
+        <v>1131.039769608815</v>
       </c>
       <c r="W31" t="n">
-        <v>1390.061905225871</v>
+        <v>893.6944659454626</v>
       </c>
       <c r="X31" t="n">
-        <v>1162.072354327854</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y31" t="n">
-        <v>941.2797751843235</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6698,25 +6698,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1390.197710791128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2265.590483597801</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N32" t="n">
-        <v>2812.369300656583</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O32" t="n">
-        <v>3692.333950986038</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
         <v>4653.975400188666</v>
@@ -6725,25 +6725,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6768,22 +6768,22 @@
         <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K33" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>788.5151678215054</v>
+        <v>788.5151678215063</v>
       </c>
       <c r="C34" t="n">
-        <v>667.0286178416718</v>
+        <v>667.0286178416727</v>
       </c>
       <c r="D34" t="n">
-        <v>564.3616113774094</v>
+        <v>564.3616113774103</v>
       </c>
       <c r="E34" t="n">
-        <v>463.8981507430896</v>
+        <v>463.8981507430905</v>
       </c>
       <c r="F34" t="n">
-        <v>364.4578361932525</v>
+        <v>364.4578361932523</v>
       </c>
       <c r="G34" t="n">
         <v>244.2046325160446</v>
@@ -6859,10 +6859,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K34" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L34" t="n">
-        <v>800.7468040499224</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M34" t="n">
         <v>1191.409234901878</v>
@@ -6877,13 +6877,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q34" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R34" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S34" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T34" t="n">
         <v>1967.452490122057</v>
@@ -6892,16 +6892,16 @@
         <v>1725.799256195774</v>
       </c>
       <c r="V34" t="n">
-        <v>1518.56440093796</v>
+        <v>1518.564400937961</v>
       </c>
       <c r="W34" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849074</v>
       </c>
       <c r="X34" t="n">
         <v>1096.056945899129</v>
       </c>
       <c r="Y34" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036727</v>
       </c>
     </row>
     <row r="35">
@@ -6935,28 +6935,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K35" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L35" t="n">
-        <v>1650.184003770974</v>
+        <v>1586.925993846824</v>
       </c>
       <c r="M35" t="n">
-        <v>2183.715908442899</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N35" t="n">
-        <v>2979.169639353395</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
@@ -7014,13 +7014,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7056,10 +7056,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7075,10 +7075,10 @@
         <v>667.0286178416716</v>
       </c>
       <c r="D37" t="n">
-        <v>564.3616113774093</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E37" t="n">
-        <v>463.8981507430895</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F37" t="n">
         <v>364.4578361932524</v>
@@ -7132,13 +7132,13 @@
         <v>1518.56440093796</v>
       </c>
       <c r="W37" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X37" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y37" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
     <row r="38">
@@ -7151,43 +7151,43 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L38" t="n">
-        <v>1339.447785386688</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2317.998088216516</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N38" t="n">
-        <v>3297.750360443163</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O38" t="n">
-        <v>3800.7228313225</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
         <v>4195.497197679678</v>
@@ -7199,19 +7199,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
         <v>3150.95552873011</v>
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973187</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161917</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549405</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.967878549485</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.43332057637</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089881</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468556</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
@@ -7263,40 +7263,40 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215055</v>
+        <v>788.5151678215057</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416715</v>
+        <v>667.028617841672</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774091</v>
+        <v>564.3616113774096</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430893</v>
+        <v>463.8981507430898</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932523</v>
+        <v>364.4578361932528</v>
       </c>
       <c r="G40" t="n">
         <v>244.2046325160446</v>
       </c>
       <c r="H40" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7333,7 +7333,7 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K40" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490195</v>
       </c>
       <c r="L40" t="n">
         <v>800.7468040499223</v>
@@ -7375,7 +7375,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036718</v>
+        <v>922.713999703672</v>
       </c>
     </row>
     <row r="41">
@@ -7388,19 +7388,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7409,28 +7409,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>785.6651881176192</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L41" t="n">
-        <v>1650.184003770974</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M41" t="n">
-        <v>2265.590483597801</v>
+        <v>2782.232616025902</v>
       </c>
       <c r="N41" t="n">
-        <v>2812.369300656583</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O41" t="n">
-        <v>3692.333950986038</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P41" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7448,7 +7448,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
         <v>3150.95552873011</v>
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G42" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839442</v>
@@ -7503,37 +7503,37 @@
         <v>1715.000032008794</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T42" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W42" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215052</v>
+        <v>788.515167821505</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416716</v>
+        <v>667.0286178416713</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774092</v>
+        <v>564.361611377409</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430894</v>
+        <v>463.8981507430892</v>
       </c>
       <c r="F43" t="n">
         <v>364.4578361932524</v>
@@ -7570,7 +7570,7 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K43" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490195</v>
       </c>
       <c r="L43" t="n">
         <v>800.7468040499223</v>
@@ -7600,7 +7600,7 @@
         <v>1967.452490122057</v>
       </c>
       <c r="U43" t="n">
-        <v>1725.799256195774</v>
+        <v>1725.799256195773</v>
       </c>
       <c r="V43" t="n">
         <v>1518.56440093796</v>
@@ -7612,7 +7612,7 @@
         <v>1096.056945899128</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036716</v>
+        <v>922.7139997036713</v>
       </c>
     </row>
     <row r="44">
@@ -7637,7 +7637,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7649,25 +7649,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1803.682313196074</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M44" t="n">
-        <v>2337.214217867999</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N44" t="n">
-        <v>3316.966490094645</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O44" t="n">
-        <v>3819.938960973982</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
@@ -7701,34 +7701,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C45" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K45" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
         <v>794.200663232024</v>
@@ -7737,28 +7737,28 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215057</v>
+        <v>788.5151678215053</v>
       </c>
       <c r="C46" t="n">
-        <v>667.028617841672</v>
+        <v>667.0286178416717</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774096</v>
+        <v>564.3616113774093</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430898</v>
+        <v>463.8981507430895</v>
       </c>
       <c r="F46" t="n">
-        <v>364.4578361932528</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G46" t="n">
         <v>244.2046325160447</v>
       </c>
       <c r="H46" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819757</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>187.1890521477367</v>
+        <v>187.1890521477366</v>
       </c>
       <c r="K46" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L46" t="n">
         <v>800.7468040499225</v>
@@ -7825,19 +7825,19 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q46" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R46" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S46" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T46" t="n">
-        <v>1967.452490122057</v>
+        <v>1967.452490122056</v>
       </c>
       <c r="U46" t="n">
-        <v>1725.799256195774</v>
+        <v>1725.799256195773</v>
       </c>
       <c r="V46" t="n">
         <v>1518.56440093796</v>
@@ -7849,7 +7849,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.713999703672</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
   </sheetData>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>422.286579409329</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,28 +8769,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>140.1624335914065</v>
+        <v>458.8183918032597</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>36.49101924097579</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,19 +8924,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>355.9850416470209</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>431.5658548397838</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9006,13 +9006,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>208.5059056680507</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>208.5059056680337</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>8.57615748743433</v>
+        <v>8.576157487434926</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9173,19 +9173,19 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>294.789378337032</v>
+        <v>135.4738644579596</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>208.5059056680333</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>208.5059056680502</v>
       </c>
       <c r="R18" t="n">
-        <v>8.57615748743433</v>
+        <v>8.576157487434926</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9407,13 +9407,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>415.8907827786942</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>135.4738644579578</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9489,10 +9489,10 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>208.5059056680507</v>
       </c>
       <c r="O21" t="n">
-        <v>208.5059056680336</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>8.57615748743433</v>
+        <v>8.576157487434926</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,28 +9635,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>205.9224965184712</v>
+        <v>135.4738644579652</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9729,16 +9729,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>208.5059056680336</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>208.5059056680551</v>
       </c>
       <c r="R24" t="n">
-        <v>8.57615748743433</v>
+        <v>8.576157487435097</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9884,7 +9884,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>288.0478149561031</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9893,7 +9893,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>63.01588120402332</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -10121,19 +10121,19 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>241.9338129178262</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10355,19 +10355,19 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>345.3140082169173</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10586,19 +10586,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>29.61882225792226</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>251.1867816683983</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,25 +10820,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>272.8828616575889</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>9.059419880941277e-13</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>82.70159106555843</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>246.4545694808461</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11297,28 +11297,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P44" t="n">
-        <v>192.9047586887102</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22559,7 +22559,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.651299055276779</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>295.3408709174432</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22708,25 +22708,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,7 +22747,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -22765,7 +22765,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>64.73615944289091</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>64.73615944289313</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23428,10 +23428,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.516614399535</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>149.1187276908262</v>
+        <v>7.694908402468343</v>
       </c>
       <c r="I13" t="n">
         <v>111.1122996170772</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>111.0005814968323</v>
+        <v>111.000581496836</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.6460300583344</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2386094496405</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>217.4654608346879</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>126.3075691410405</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.1396818493028</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>145.7674546533074</v>
       </c>
       <c r="I16" t="n">
-        <v>99.77690983373117</v>
+        <v>99.77690983373142</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>94.05232337457466</v>
       </c>
       <c r="S16" t="n">
-        <v>191.7535314455903</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2180494923551</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>44.52717728705485</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>145.7674546533073</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>99.77690983373117</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>94.05232337457429</v>
+        <v>94.05232337457466</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>220.0355000709787</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>82.61675886890629</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>212.8483695079927</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,13 +24127,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,10 +24142,10 @@
         <v>166.1396818493028</v>
       </c>
       <c r="H22" t="n">
-        <v>145.7674546533073</v>
+        <v>145.7674546533074</v>
       </c>
       <c r="I22" t="n">
-        <v>99.77690983373117</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>94.05232337457429</v>
+        <v>94.05232337457466</v>
       </c>
       <c r="S22" t="n">
-        <v>191.7535314455903</v>
+        <v>191.7535314455905</v>
       </c>
       <c r="T22" t="n">
-        <v>52.72695111313607</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>24.7012463807215</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>10.36765827551821</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.1396818493028</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>145.7674546533074</v>
       </c>
       <c r="I25" t="n">
-        <v>99.77690983373117</v>
+        <v>99.77690983373151</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,19 +24418,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2180494923551</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>205.9906612584136</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24604,16 +24604,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24649,10 +24649,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>95.45488397944695</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>157.5044623247786</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>45.97411894093582</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,19 +24886,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>51.55114770987257</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1260526.818398872</v>
+        <v>1260526.818398873</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1228412.391432499</v>
+        <v>1228412.391432498</v>
       </c>
     </row>
     <row r="7">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1269444.277432542</v>
+        <v>1269444.277432543</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1269444.277432542</v>
+        <v>1269444.277432543</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>179444.8432213321</v>
+        <v>179444.8432213323</v>
       </c>
       <c r="C2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194636</v>
       </c>
       <c r="D2" t="n">
         <v>184734.3982194637</v>
       </c>
       <c r="E2" t="n">
-        <v>174669.4577731567</v>
+        <v>174669.4577731568</v>
       </c>
       <c r="F2" t="n">
         <v>178023.7280309688</v>
       </c>
       <c r="G2" t="n">
-        <v>178023.7280309688</v>
+        <v>178023.728030969</v>
       </c>
       <c r="H2" t="n">
         <v>178023.7280309687</v>
       </c>
       <c r="I2" t="n">
-        <v>178023.7280309688</v>
+        <v>178023.7280309687</v>
       </c>
       <c r="J2" t="n">
-        <v>178686.8040991424</v>
+        <v>178686.8040991426</v>
       </c>
       <c r="K2" t="n">
-        <v>178686.8040991426</v>
+        <v>178686.8040991427</v>
       </c>
       <c r="L2" t="n">
-        <v>184734.3982194639</v>
+        <v>184734.398219464</v>
       </c>
       <c r="M2" t="n">
-        <v>184734.3982194639</v>
+        <v>184734.3982194641</v>
       </c>
       <c r="N2" t="n">
         <v>184734.398219464</v>
       </c>
       <c r="O2" t="n">
-        <v>184734.398219464</v>
+        <v>184734.3982194639</v>
       </c>
       <c r="P2" t="n">
         <v>184734.3982194639</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>510216.4288594115</v>
+        <v>510216.428859412</v>
       </c>
       <c r="F3" t="n">
-        <v>165223.7402705906</v>
+        <v>165223.7402705867</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>221821.0542122887</v>
+        <v>221821.0542122929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487407</v>
+        <v>37580.10929487406</v>
       </c>
       <c r="M3" t="n">
-        <v>130898.1714288278</v>
+        <v>130898.1714288279</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169930.4475800585</v>
+        <v>169930.4475800589</v>
       </c>
       <c r="C4" t="n">
         <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>36668.30966185972</v>
+        <v>36668.30966185966</v>
       </c>
       <c r="F4" t="n">
-        <v>22598.28697482957</v>
+        <v>22598.28697482987</v>
       </c>
       <c r="G4" t="n">
-        <v>22598.28697482956</v>
+        <v>22598.28697482991</v>
       </c>
       <c r="H4" t="n">
-        <v>22598.28697482957</v>
+        <v>22598.28697482989</v>
       </c>
       <c r="I4" t="n">
-        <v>22598.28697482957</v>
+        <v>22598.28697482999</v>
       </c>
       <c r="J4" t="n">
-        <v>18148.49231918991</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="K4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="L4" t="n">
+        <v>33605.65329740899</v>
+      </c>
+      <c r="M4" t="n">
+        <v>33605.65329740898</v>
+      </c>
+      <c r="N4" t="n">
+        <v>33605.65329740896</v>
+      </c>
+      <c r="O4" t="n">
+        <v>33605.65329740901</v>
+      </c>
+      <c r="P4" t="n">
         <v>33605.653297409</v>
-      </c>
-      <c r="M4" t="n">
-        <v>33605.65329740897</v>
-      </c>
-      <c r="N4" t="n">
-        <v>33605.65329740899</v>
-      </c>
-      <c r="O4" t="n">
-        <v>33605.65329740898</v>
-      </c>
-      <c r="P4" t="n">
-        <v>33605.65329740899</v>
       </c>
     </row>
     <row r="5">
@@ -26476,19 +26476,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>90756.51810232858</v>
+        <v>90756.51810232861</v>
       </c>
       <c r="F5" t="n">
-        <v>95313.28996868091</v>
+        <v>95313.28996868084</v>
       </c>
       <c r="G5" t="n">
-        <v>95313.28996868091</v>
+        <v>95313.28996868085</v>
       </c>
       <c r="H5" t="n">
-        <v>95313.28996868091</v>
+        <v>95313.28996868085</v>
       </c>
       <c r="I5" t="n">
-        <v>95313.28996868091</v>
+        <v>95313.28996868082</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-663312.5616366804</v>
+        <v>-663371.3344699931</v>
       </c>
       <c r="C6" t="n">
+        <v>-81473.36670107377</v>
+      </c>
+      <c r="D6" t="n">
         <v>-81473.36670107374</v>
       </c>
-      <c r="D6" t="n">
-        <v>-81473.36670107368</v>
-      </c>
       <c r="E6" t="n">
-        <v>-462971.7988504431</v>
+        <v>-463083.6315220692</v>
       </c>
       <c r="F6" t="n">
-        <v>-105111.5891831323</v>
+        <v>-105186.152185223</v>
       </c>
       <c r="G6" t="n">
-        <v>60112.15108745833</v>
+        <v>60037.58808536377</v>
       </c>
       <c r="H6" t="n">
-        <v>60112.15108745825</v>
+        <v>60037.58808536363</v>
       </c>
       <c r="I6" t="n">
-        <v>60112.15108745833</v>
+        <v>60037.58808536456</v>
       </c>
       <c r="J6" t="n">
-        <v>-157666.2606860499</v>
+        <v>-157733.4561762797</v>
       </c>
       <c r="K6" t="n">
-        <v>64154.79352623895</v>
+        <v>64087.5980360133</v>
       </c>
       <c r="L6" t="n">
-        <v>13215.96461307866</v>
+        <v>13215.96461307879</v>
       </c>
       <c r="M6" t="n">
-        <v>-80102.09752087496</v>
+        <v>-80102.09752087499</v>
       </c>
       <c r="N6" t="n">
         <v>50796.07390795287</v>
       </c>
       <c r="O6" t="n">
-        <v>50796.0739079529</v>
+        <v>50796.0739079528</v>
       </c>
       <c r="P6" t="n">
-        <v>50796.07390795267</v>
+        <v>50796.07390795276</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>46.97513661859259</v>
       </c>
       <c r="M2" t="n">
+        <v>46.97513661859259</v>
+      </c>
+      <c r="N2" t="n">
+        <v>46.97513661859259</v>
+      </c>
+      <c r="O2" t="n">
         <v>46.97513661859256</v>
       </c>
-      <c r="N2" t="n">
-        <v>46.9751366185926</v>
-      </c>
-      <c r="O2" t="n">
-        <v>46.97513661859258</v>
-      </c>
       <c r="P2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="3">
@@ -26741,22 +26741,22 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>817.6023863122871</v>
+        <v>817.6023863122874</v>
       </c>
       <c r="F3" t="n">
-        <v>1026.62861871377</v>
+        <v>1026.628618713766</v>
       </c>
       <c r="G3" t="n">
-        <v>1026.62861871377</v>
+        <v>1026.628618713766</v>
       </c>
       <c r="H3" t="n">
-        <v>1026.62861871377</v>
+        <v>1026.628618713766</v>
       </c>
       <c r="I3" t="n">
-        <v>1026.62861871377</v>
+        <v>1026.628618713765</v>
       </c>
       <c r="J3" t="n">
         <v>1089.776700593298</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1199.552402643433</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>439.8587220952004</v>
+        <v>439.8587220952008</v>
       </c>
       <c r="F3" t="n">
-        <v>209.0262324014834</v>
+        <v>209.0262324014785</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26978,10 +26978,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-1.364242052659392e-12</v>
       </c>
       <c r="J3" t="n">
-        <v>63.14808187952781</v>
+        <v>63.14808187953372</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2651298888774</v>
+        <v>525.2651298888779</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>669.2478007160528</v>
+        <v>669.2478007160523</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2651298888774</v>
+        <v>525.2651298888779</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2651298888774</v>
+        <v>525.2651298888779</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,10 +27388,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>116.0346286486629</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27427,22 +27427,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>48.01996123578247</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,28 +27579,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>104.2931254035729</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>191.626188549371</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>198.1778623102255</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>210.5901450350423</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>24.27954241334161</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>56.82580834555237</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,7 +27862,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>309.1127273619607</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>272.0180034264159</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28020,19 +28020,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>35.40951857488713</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>144.4920442397841</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28293,7 +28293,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>-3.758651504979533e-12</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28506,7 +28506,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -29338,7 +29338,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
   </sheetData>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.286843764069493</v>
+        <v>3.286843764069495</v>
       </c>
       <c r="H11" t="n">
-        <v>33.6613886987767</v>
+        <v>33.66138869877672</v>
       </c>
       <c r="I11" t="n">
         <v>126.7160442142893</v>
       </c>
       <c r="J11" t="n">
-        <v>278.9667559206934</v>
+        <v>278.9667559206935</v>
       </c>
       <c r="K11" t="n">
-        <v>418.0988524537552</v>
+        <v>418.0988524537553</v>
       </c>
       <c r="L11" t="n">
-        <v>518.688597298397</v>
+        <v>518.6885972983972</v>
       </c>
       <c r="M11" t="n">
-        <v>577.1410050876678</v>
+        <v>577.1410050876681</v>
       </c>
       <c r="N11" t="n">
-        <v>586.4797499323304</v>
+        <v>586.4797499323306</v>
       </c>
       <c r="O11" t="n">
-        <v>553.7961972533643</v>
+        <v>553.7961972533645</v>
       </c>
       <c r="P11" t="n">
-        <v>472.6522418278986</v>
+        <v>472.6522418278988</v>
       </c>
       <c r="Q11" t="n">
-        <v>354.9421495271598</v>
+        <v>354.9421495271599</v>
       </c>
       <c r="R11" t="n">
-        <v>206.4671995947305</v>
+        <v>206.4671995947306</v>
       </c>
       <c r="S11" t="n">
-        <v>74.89895227373366</v>
+        <v>74.89895227373368</v>
       </c>
       <c r="T11" t="n">
-        <v>14.38815857721421</v>
+        <v>14.38815857721422</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2629475011255594</v>
+        <v>0.2629475011255595</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.758616453577372</v>
+        <v>1.758616453577373</v>
       </c>
       <c r="H12" t="n">
         <v>16.98453259112884</v>
       </c>
       <c r="I12" t="n">
-        <v>60.54885596746655</v>
+        <v>60.54885596746658</v>
       </c>
       <c r="J12" t="n">
         <v>166.150688712764</v>
       </c>
       <c r="K12" t="n">
-        <v>283.9779911024479</v>
+        <v>283.977991102448</v>
       </c>
       <c r="L12" t="n">
-        <v>381.8434540980168</v>
+        <v>381.8434540980169</v>
       </c>
       <c r="M12" t="n">
-        <v>445.5933005401964</v>
+        <v>445.5933005401966</v>
       </c>
       <c r="N12" t="n">
-        <v>457.3868293012483</v>
+        <v>457.3868293012484</v>
       </c>
       <c r="O12" t="n">
-        <v>418.4195910404022</v>
+        <v>418.4195910404024</v>
       </c>
       <c r="P12" t="n">
-        <v>335.8186103326826</v>
+        <v>335.8186103326828</v>
       </c>
       <c r="Q12" t="n">
-        <v>224.4858476531397</v>
+        <v>224.4858476531398</v>
       </c>
       <c r="R12" t="n">
-        <v>109.1884847229881</v>
+        <v>109.1884847229882</v>
       </c>
       <c r="S12" t="n">
-        <v>32.66552930219371</v>
+        <v>32.66552930219373</v>
       </c>
       <c r="T12" t="n">
-        <v>7.088458424726335</v>
+        <v>7.088458424726339</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1156984508932482</v>
+        <v>0.1156984508932483</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.474364958923796</v>
+        <v>1.474364958923797</v>
       </c>
       <c r="H13" t="n">
         <v>13.1084448166134</v>
       </c>
       <c r="I13" t="n">
-        <v>44.33817531018109</v>
+        <v>44.33817531018111</v>
       </c>
       <c r="J13" t="n">
         <v>104.2376025959124</v>
       </c>
       <c r="K13" t="n">
-        <v>171.2944015913283</v>
+        <v>171.2944015913284</v>
       </c>
       <c r="L13" t="n">
-        <v>219.1978594385433</v>
+        <v>219.1978594385434</v>
       </c>
       <c r="M13" t="n">
-        <v>231.1134089702092</v>
+        <v>231.1134089702093</v>
       </c>
       <c r="N13" t="n">
-        <v>225.6180486687662</v>
+        <v>225.6180486687663</v>
       </c>
       <c r="O13" t="n">
-        <v>208.3947852849745</v>
+        <v>208.3947852849746</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3177401229289</v>
+        <v>178.317740122929</v>
       </c>
       <c r="Q13" t="n">
-        <v>123.4579603331553</v>
+        <v>123.4579603331554</v>
       </c>
       <c r="R13" t="n">
-        <v>66.29280988033722</v>
+        <v>66.29280988033724</v>
       </c>
       <c r="S13" t="n">
-        <v>25.69416023869924</v>
+        <v>25.69416023869925</v>
       </c>
       <c r="T13" t="n">
-        <v>6.299559369947128</v>
+        <v>6.29955936994713</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08041990685038898</v>
+        <v>0.08041990685038901</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.127150225985003</v>
+        <v>4.127150225984986</v>
       </c>
       <c r="H14" t="n">
-        <v>42.26717725186893</v>
+        <v>42.26717725186874</v>
       </c>
       <c r="I14" t="n">
-        <v>159.111959087287</v>
+        <v>159.1119590872863</v>
       </c>
       <c r="J14" t="n">
-        <v>350.2867164926951</v>
+        <v>350.2867164926935</v>
       </c>
       <c r="K14" t="n">
-        <v>524.9889855586404</v>
+        <v>524.988985558638</v>
       </c>
       <c r="L14" t="n">
-        <v>651.2952592871291</v>
+        <v>651.2952592871262</v>
       </c>
       <c r="M14" t="n">
-        <v>724.6914671184899</v>
+        <v>724.6914671184866</v>
       </c>
       <c r="N14" t="n">
-        <v>736.4177326980698</v>
+        <v>736.4177326980665</v>
       </c>
       <c r="O14" t="n">
-        <v>695.3783826384314</v>
+        <v>695.3783826384283</v>
       </c>
       <c r="P14" t="n">
-        <v>593.4893614344265</v>
+        <v>593.4893614344238</v>
       </c>
       <c r="Q14" t="n">
-        <v>445.6857939663384</v>
+        <v>445.6857939663364</v>
       </c>
       <c r="R14" t="n">
-        <v>259.2521003830307</v>
+        <v>259.2521003830296</v>
       </c>
       <c r="S14" t="n">
-        <v>94.04743577463337</v>
+        <v>94.04743577463296</v>
       </c>
       <c r="T14" t="n">
-        <v>18.06660011424936</v>
+        <v>18.06660011424928</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3301720180788003</v>
+        <v>0.3301720180787988</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.208220047799431</v>
+        <v>2.208220047799421</v>
       </c>
       <c r="H15" t="n">
-        <v>21.32675677743135</v>
+        <v>21.32675677743126</v>
       </c>
       <c r="I15" t="n">
-        <v>76.02862883870849</v>
+        <v>76.02862883870814</v>
       </c>
       <c r="J15" t="n">
-        <v>208.628368638805</v>
+        <v>208.6283686388041</v>
       </c>
       <c r="K15" t="n">
-        <v>356.5791118413669</v>
+        <v>356.5791118413653</v>
       </c>
       <c r="L15" t="n">
-        <v>479.4646204662756</v>
+        <v>479.4646204662735</v>
       </c>
       <c r="M15" t="n">
-        <v>559.5125971990049</v>
+        <v>559.5125971990024</v>
       </c>
       <c r="N15" t="n">
-        <v>574.3212307651687</v>
+        <v>574.3212307651661</v>
       </c>
       <c r="O15" t="n">
-        <v>525.3917233902445</v>
+        <v>525.3917233902421</v>
       </c>
       <c r="P15" t="n">
-        <v>421.6731773732089</v>
+        <v>421.6731773732071</v>
       </c>
       <c r="Q15" t="n">
-        <v>281.8773520664677</v>
+        <v>281.8773520664665</v>
       </c>
       <c r="R15" t="n">
-        <v>137.1033464765296</v>
+        <v>137.103346476529</v>
       </c>
       <c r="S15" t="n">
-        <v>41.01671887030957</v>
+        <v>41.0167188703094</v>
       </c>
       <c r="T15" t="n">
-        <v>8.900676420735422</v>
+        <v>8.900676420735383</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1452776347236468</v>
+        <v>0.1452776347236462</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.851297509155979</v>
+        <v>1.851297509155971</v>
       </c>
       <c r="H16" t="n">
-        <v>16.45971785413226</v>
+        <v>16.45971785413219</v>
       </c>
       <c r="I16" t="n">
-        <v>55.67356509352711</v>
+        <v>55.67356509352686</v>
       </c>
       <c r="J16" t="n">
-        <v>130.8867338973277</v>
+        <v>130.8867338973272</v>
       </c>
       <c r="K16" t="n">
-        <v>215.0871106092128</v>
+        <v>215.0871106092119</v>
       </c>
       <c r="L16" t="n">
-        <v>275.2374496794263</v>
+        <v>275.2374496794251</v>
       </c>
       <c r="M16" t="n">
-        <v>290.1992995488777</v>
+        <v>290.1992995488764</v>
       </c>
       <c r="N16" t="n">
-        <v>283.2990088329329</v>
+        <v>283.2990088329317</v>
       </c>
       <c r="O16" t="n">
-        <v>261.6724879305198</v>
+        <v>261.6724879305186</v>
       </c>
       <c r="P16" t="n">
-        <v>223.9060187437376</v>
+        <v>223.9060187437366</v>
       </c>
       <c r="Q16" t="n">
-        <v>155.0209214257793</v>
+        <v>155.0209214257787</v>
       </c>
       <c r="R16" t="n">
-        <v>83.2410680025952</v>
+        <v>83.24106800259483</v>
       </c>
       <c r="S16" t="n">
-        <v>32.26306659138192</v>
+        <v>32.26306659138178</v>
       </c>
       <c r="T16" t="n">
-        <v>7.910089357302819</v>
+        <v>7.910089357302784</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1009798641357808</v>
+        <v>0.1009798641357804</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.127150225985003</v>
+        <v>4.127150225984986</v>
       </c>
       <c r="H17" t="n">
-        <v>42.26717725186893</v>
+        <v>42.26717725186874</v>
       </c>
       <c r="I17" t="n">
-        <v>159.111959087287</v>
+        <v>159.1119590872863</v>
       </c>
       <c r="J17" t="n">
-        <v>350.2867164926951</v>
+        <v>350.2867164926935</v>
       </c>
       <c r="K17" t="n">
-        <v>524.9889855586404</v>
+        <v>524.988985558638</v>
       </c>
       <c r="L17" t="n">
-        <v>651.2952592871291</v>
+        <v>651.2952592871262</v>
       </c>
       <c r="M17" t="n">
-        <v>724.6914671184899</v>
+        <v>724.6914671184866</v>
       </c>
       <c r="N17" t="n">
-        <v>736.4177326980698</v>
+        <v>736.4177326980665</v>
       </c>
       <c r="O17" t="n">
-        <v>695.3783826384314</v>
+        <v>695.3783826384283</v>
       </c>
       <c r="P17" t="n">
-        <v>593.4893614344265</v>
+        <v>593.4893614344238</v>
       </c>
       <c r="Q17" t="n">
-        <v>445.6857939663384</v>
+        <v>445.6857939663364</v>
       </c>
       <c r="R17" t="n">
-        <v>259.2521003830307</v>
+        <v>259.2521003830296</v>
       </c>
       <c r="S17" t="n">
-        <v>94.04743577463337</v>
+        <v>94.04743577463296</v>
       </c>
       <c r="T17" t="n">
-        <v>18.06660011424936</v>
+        <v>18.06660011424928</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3301720180788003</v>
+        <v>0.3301720180787988</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.208220047799431</v>
+        <v>2.208220047799421</v>
       </c>
       <c r="H18" t="n">
-        <v>21.32675677743135</v>
+        <v>21.32675677743126</v>
       </c>
       <c r="I18" t="n">
-        <v>76.02862883870849</v>
+        <v>76.02862883870814</v>
       </c>
       <c r="J18" t="n">
-        <v>208.628368638805</v>
+        <v>208.6283686388041</v>
       </c>
       <c r="K18" t="n">
-        <v>356.5791118413669</v>
+        <v>356.5791118413653</v>
       </c>
       <c r="L18" t="n">
-        <v>479.4646204662756</v>
+        <v>479.4646204662735</v>
       </c>
       <c r="M18" t="n">
-        <v>559.5125971990049</v>
+        <v>559.5125971990024</v>
       </c>
       <c r="N18" t="n">
-        <v>574.3212307651687</v>
+        <v>574.3212307651661</v>
       </c>
       <c r="O18" t="n">
-        <v>525.3917233902445</v>
+        <v>525.3917233902421</v>
       </c>
       <c r="P18" t="n">
-        <v>421.6731773732089</v>
+        <v>421.6731773732071</v>
       </c>
       <c r="Q18" t="n">
-        <v>281.8773520664677</v>
+        <v>281.8773520664665</v>
       </c>
       <c r="R18" t="n">
-        <v>137.1033464765296</v>
+        <v>137.103346476529</v>
       </c>
       <c r="S18" t="n">
-        <v>41.01671887030957</v>
+        <v>41.0167188703094</v>
       </c>
       <c r="T18" t="n">
-        <v>8.900676420735422</v>
+        <v>8.900676420735383</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1452776347236468</v>
+        <v>0.1452776347236462</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.851297509155979</v>
+        <v>1.851297509155971</v>
       </c>
       <c r="H19" t="n">
-        <v>16.45971785413226</v>
+        <v>16.45971785413219</v>
       </c>
       <c r="I19" t="n">
-        <v>55.67356509352711</v>
+        <v>55.67356509352686</v>
       </c>
       <c r="J19" t="n">
-        <v>130.8867338973277</v>
+        <v>130.8867338973272</v>
       </c>
       <c r="K19" t="n">
-        <v>215.0871106092128</v>
+        <v>215.0871106092119</v>
       </c>
       <c r="L19" t="n">
-        <v>275.2374496794263</v>
+        <v>275.2374496794251</v>
       </c>
       <c r="M19" t="n">
-        <v>290.1992995488777</v>
+        <v>290.1992995488764</v>
       </c>
       <c r="N19" t="n">
-        <v>283.2990088329329</v>
+        <v>283.2990088329317</v>
       </c>
       <c r="O19" t="n">
-        <v>261.6724879305198</v>
+        <v>261.6724879305186</v>
       </c>
       <c r="P19" t="n">
-        <v>223.9060187437376</v>
+        <v>223.9060187437366</v>
       </c>
       <c r="Q19" t="n">
-        <v>155.0209214257793</v>
+        <v>155.0209214257787</v>
       </c>
       <c r="R19" t="n">
-        <v>83.2410680025952</v>
+        <v>83.24106800259483</v>
       </c>
       <c r="S19" t="n">
-        <v>32.26306659138192</v>
+        <v>32.26306659138178</v>
       </c>
       <c r="T19" t="n">
-        <v>7.910089357302819</v>
+        <v>7.910089357302784</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1009798641357808</v>
+        <v>0.1009798641357804</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.127150225985003</v>
+        <v>4.127150225984986</v>
       </c>
       <c r="H20" t="n">
-        <v>42.26717725186893</v>
+        <v>42.26717725186874</v>
       </c>
       <c r="I20" t="n">
-        <v>159.111959087287</v>
+        <v>159.1119590872863</v>
       </c>
       <c r="J20" t="n">
-        <v>350.2867164926951</v>
+        <v>350.2867164926935</v>
       </c>
       <c r="K20" t="n">
-        <v>524.9889855586404</v>
+        <v>524.988985558638</v>
       </c>
       <c r="L20" t="n">
-        <v>651.2952592871291</v>
+        <v>651.2952592871262</v>
       </c>
       <c r="M20" t="n">
-        <v>724.6914671184899</v>
+        <v>724.6914671184866</v>
       </c>
       <c r="N20" t="n">
-        <v>736.4177326980698</v>
+        <v>736.4177326980665</v>
       </c>
       <c r="O20" t="n">
-        <v>695.3783826384314</v>
+        <v>695.3783826384283</v>
       </c>
       <c r="P20" t="n">
-        <v>593.4893614344265</v>
+        <v>593.4893614344238</v>
       </c>
       <c r="Q20" t="n">
-        <v>445.6857939663384</v>
+        <v>445.6857939663364</v>
       </c>
       <c r="R20" t="n">
-        <v>259.2521003830307</v>
+        <v>259.2521003830296</v>
       </c>
       <c r="S20" t="n">
-        <v>94.04743577463337</v>
+        <v>94.04743577463296</v>
       </c>
       <c r="T20" t="n">
-        <v>18.06660011424936</v>
+        <v>18.06660011424928</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3301720180788003</v>
+        <v>0.3301720180787988</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.208220047799431</v>
+        <v>2.208220047799421</v>
       </c>
       <c r="H21" t="n">
-        <v>21.32675677743135</v>
+        <v>21.32675677743126</v>
       </c>
       <c r="I21" t="n">
-        <v>76.02862883870849</v>
+        <v>76.02862883870814</v>
       </c>
       <c r="J21" t="n">
-        <v>208.628368638805</v>
+        <v>208.6283686388041</v>
       </c>
       <c r="K21" t="n">
-        <v>356.5791118413669</v>
+        <v>356.5791118413653</v>
       </c>
       <c r="L21" t="n">
-        <v>479.4646204662756</v>
+        <v>479.4646204662735</v>
       </c>
       <c r="M21" t="n">
-        <v>559.5125971990049</v>
+        <v>559.5125971990024</v>
       </c>
       <c r="N21" t="n">
-        <v>574.3212307651687</v>
+        <v>574.3212307651661</v>
       </c>
       <c r="O21" t="n">
-        <v>525.3917233902445</v>
+        <v>525.3917233902421</v>
       </c>
       <c r="P21" t="n">
-        <v>421.6731773732089</v>
+        <v>421.6731773732071</v>
       </c>
       <c r="Q21" t="n">
-        <v>281.8773520664677</v>
+        <v>281.8773520664665</v>
       </c>
       <c r="R21" t="n">
-        <v>137.1033464765296</v>
+        <v>137.103346476529</v>
       </c>
       <c r="S21" t="n">
-        <v>41.01671887030957</v>
+        <v>41.0167188703094</v>
       </c>
       <c r="T21" t="n">
-        <v>8.900676420735422</v>
+        <v>8.900676420735383</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1452776347236468</v>
+        <v>0.1452776347236462</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.851297509155979</v>
+        <v>1.851297509155971</v>
       </c>
       <c r="H22" t="n">
-        <v>16.45971785413226</v>
+        <v>16.45971785413219</v>
       </c>
       <c r="I22" t="n">
-        <v>55.67356509352711</v>
+        <v>55.67356509352686</v>
       </c>
       <c r="J22" t="n">
-        <v>130.8867338973277</v>
+        <v>130.8867338973272</v>
       </c>
       <c r="K22" t="n">
-        <v>215.0871106092128</v>
+        <v>215.0871106092119</v>
       </c>
       <c r="L22" t="n">
-        <v>275.2374496794263</v>
+        <v>275.2374496794251</v>
       </c>
       <c r="M22" t="n">
-        <v>290.1992995488777</v>
+        <v>290.1992995488764</v>
       </c>
       <c r="N22" t="n">
-        <v>283.2990088329329</v>
+        <v>283.2990088329317</v>
       </c>
       <c r="O22" t="n">
-        <v>261.6724879305198</v>
+        <v>261.6724879305186</v>
       </c>
       <c r="P22" t="n">
-        <v>223.9060187437376</v>
+        <v>223.9060187437366</v>
       </c>
       <c r="Q22" t="n">
-        <v>155.0209214257793</v>
+        <v>155.0209214257787</v>
       </c>
       <c r="R22" t="n">
-        <v>83.2410680025952</v>
+        <v>83.24106800259483</v>
       </c>
       <c r="S22" t="n">
-        <v>32.26306659138192</v>
+        <v>32.26306659138178</v>
       </c>
       <c r="T22" t="n">
-        <v>7.910089357302819</v>
+        <v>7.910089357302784</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1009798641357808</v>
+        <v>0.1009798641357804</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.127150225985003</v>
+        <v>4.12715022598498</v>
       </c>
       <c r="H23" t="n">
-        <v>42.26717725186893</v>
+        <v>42.26717725186869</v>
       </c>
       <c r="I23" t="n">
-        <v>159.111959087287</v>
+        <v>159.1119590872861</v>
       </c>
       <c r="J23" t="n">
-        <v>350.2867164926951</v>
+        <v>350.286716492693</v>
       </c>
       <c r="K23" t="n">
-        <v>524.9889855586404</v>
+        <v>524.9889855586373</v>
       </c>
       <c r="L23" t="n">
-        <v>651.2952592871291</v>
+        <v>651.2952592871253</v>
       </c>
       <c r="M23" t="n">
-        <v>724.6914671184899</v>
+        <v>724.6914671184857</v>
       </c>
       <c r="N23" t="n">
-        <v>736.4177326980698</v>
+        <v>736.4177326980656</v>
       </c>
       <c r="O23" t="n">
-        <v>695.3783826384314</v>
+        <v>695.3783826384274</v>
       </c>
       <c r="P23" t="n">
-        <v>593.4893614344265</v>
+        <v>593.489361434423</v>
       </c>
       <c r="Q23" t="n">
-        <v>445.6857939663384</v>
+        <v>445.6857939663358</v>
       </c>
       <c r="R23" t="n">
-        <v>259.2521003830307</v>
+        <v>259.2521003830292</v>
       </c>
       <c r="S23" t="n">
-        <v>94.04743577463337</v>
+        <v>94.04743577463283</v>
       </c>
       <c r="T23" t="n">
-        <v>18.06660011424936</v>
+        <v>18.06660011424926</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3301720180788003</v>
+        <v>0.3301720180787984</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.208220047799431</v>
+        <v>2.208220047799418</v>
       </c>
       <c r="H24" t="n">
-        <v>21.32675677743135</v>
+        <v>21.32675677743123</v>
       </c>
       <c r="I24" t="n">
-        <v>76.02862883870849</v>
+        <v>76.02862883870804</v>
       </c>
       <c r="J24" t="n">
-        <v>208.628368638805</v>
+        <v>208.6283686388038</v>
       </c>
       <c r="K24" t="n">
-        <v>356.5791118413669</v>
+        <v>356.5791118413649</v>
       </c>
       <c r="L24" t="n">
-        <v>479.4646204662756</v>
+        <v>479.4646204662728</v>
       </c>
       <c r="M24" t="n">
-        <v>559.5125971990049</v>
+        <v>559.5125971990017</v>
       </c>
       <c r="N24" t="n">
-        <v>574.3212307651687</v>
+        <v>574.3212307651654</v>
       </c>
       <c r="O24" t="n">
-        <v>525.3917233902445</v>
+        <v>525.3917233902414</v>
       </c>
       <c r="P24" t="n">
-        <v>421.6731773732089</v>
+        <v>421.6731773732065</v>
       </c>
       <c r="Q24" t="n">
-        <v>281.8773520664677</v>
+        <v>281.8773520664661</v>
       </c>
       <c r="R24" t="n">
-        <v>137.1033464765296</v>
+        <v>137.1033464765289</v>
       </c>
       <c r="S24" t="n">
-        <v>41.01671887030957</v>
+        <v>41.01671887030934</v>
       </c>
       <c r="T24" t="n">
-        <v>8.900676420735422</v>
+        <v>8.900676420735371</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1452776347236468</v>
+        <v>0.145277634723646</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.851297509155979</v>
+        <v>1.851297509155969</v>
       </c>
       <c r="H25" t="n">
-        <v>16.45971785413226</v>
+        <v>16.45971785413217</v>
       </c>
       <c r="I25" t="n">
-        <v>55.67356509352711</v>
+        <v>55.67356509352678</v>
       </c>
       <c r="J25" t="n">
-        <v>130.8867338973277</v>
+        <v>130.886733897327</v>
       </c>
       <c r="K25" t="n">
-        <v>215.0871106092128</v>
+        <v>215.0871106092116</v>
       </c>
       <c r="L25" t="n">
-        <v>275.2374496794263</v>
+        <v>275.2374496794247</v>
       </c>
       <c r="M25" t="n">
-        <v>290.1992995488777</v>
+        <v>290.199299548876</v>
       </c>
       <c r="N25" t="n">
-        <v>283.2990088329329</v>
+        <v>283.2990088329313</v>
       </c>
       <c r="O25" t="n">
-        <v>261.6724879305198</v>
+        <v>261.6724879305183</v>
       </c>
       <c r="P25" t="n">
-        <v>223.9060187437376</v>
+        <v>223.9060187437364</v>
       </c>
       <c r="Q25" t="n">
-        <v>155.0209214257793</v>
+        <v>155.0209214257785</v>
       </c>
       <c r="R25" t="n">
-        <v>83.2410680025952</v>
+        <v>83.24106800259472</v>
       </c>
       <c r="S25" t="n">
-        <v>32.26306659138192</v>
+        <v>32.26306659138174</v>
       </c>
       <c r="T25" t="n">
-        <v>7.910089357302819</v>
+        <v>7.910089357302773</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1009798641357808</v>
+        <v>0.1009798641357802</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33983,7 +33983,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O39" t="n">
         <v>557.7086478970249</v>
@@ -34223,7 +34223,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970255</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
         <v>447.6103584002926</v>
@@ -34784,7 +34784,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,7 +35024,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,19 +35258,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856228</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>267.0174665660809</v>
+        <v>267.017466566081</v>
       </c>
       <c r="K11" t="n">
-        <v>522.1544139799394</v>
+        <v>522.1544139799396</v>
       </c>
       <c r="L11" t="n">
-        <v>700.5833968788602</v>
+        <v>700.5833968788604</v>
       </c>
       <c r="M11" t="n">
-        <v>796.3083053532276</v>
+        <v>796.3083053532279</v>
       </c>
       <c r="N11" t="n">
-        <v>794.4136107477236</v>
+        <v>794.4136107477239</v>
       </c>
       <c r="O11" t="n">
-        <v>704.4981670944229</v>
+        <v>704.4981670944231</v>
       </c>
       <c r="P11" t="n">
-        <v>563.2179542441118</v>
+        <v>563.2179542441119</v>
       </c>
       <c r="Q11" t="n">
-        <v>344.951450312615</v>
+        <v>344.9514503126151</v>
       </c>
       <c r="R11" t="n">
-        <v>56.59808165358081</v>
+        <v>56.59808165358089</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>39.31306204609726</v>
+        <v>39.31306204609734</v>
       </c>
       <c r="K12" t="n">
-        <v>146.1365521280889</v>
+        <v>410.6017891406676</v>
       </c>
       <c r="L12" t="n">
-        <v>243.2890743181426</v>
+        <v>243.2890743181428</v>
       </c>
       <c r="M12" t="n">
-        <v>769.1643303681781</v>
+        <v>303.4592666181783</v>
       </c>
       <c r="N12" t="n">
-        <v>466.2075508093214</v>
+        <v>784.8635090211749</v>
       </c>
       <c r="O12" t="n">
-        <v>275.8233465959578</v>
+        <v>275.823346595958</v>
       </c>
       <c r="P12" t="n">
-        <v>520.3069715582895</v>
+        <v>201.8442029183526</v>
       </c>
       <c r="Q12" t="n">
-        <v>84.50407356711816</v>
+        <v>294.5813613029674</v>
       </c>
       <c r="R12" t="n">
-        <v>9.030650570344989</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>10.87842247923962</v>
+        <v>10.87842247923966</v>
       </c>
       <c r="K13" t="n">
-        <v>149.0249097654454</v>
+        <v>149.0249097654455</v>
       </c>
       <c r="L13" t="n">
-        <v>246.7878846988595</v>
+        <v>246.7878846988596</v>
       </c>
       <c r="M13" t="n">
-        <v>270.6972859320498</v>
+        <v>270.6972859320499</v>
       </c>
       <c r="N13" t="n">
-        <v>269.7502210479947</v>
+        <v>269.7502210479948</v>
       </c>
       <c r="O13" t="n">
-        <v>232.9799131990141</v>
+        <v>232.9799131990142</v>
       </c>
       <c r="P13" t="n">
-        <v>175.5962993878224</v>
+        <v>175.5962993878225</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.29591708146096</v>
+        <v>37.29591708146101</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.2408119660088</v>
+        <v>338.337427138081</v>
       </c>
       <c r="K14" t="n">
-        <v>304.8991345136598</v>
+        <v>629.0445470848222</v>
       </c>
       <c r="L14" t="n">
-        <v>833.1900588675923</v>
+        <v>771.5138859641598</v>
       </c>
       <c r="M14" t="n">
-        <v>494.3452338912172</v>
+        <v>494.3452338912139</v>
       </c>
       <c r="N14" t="n">
-        <v>938.5705239412626</v>
+        <v>507.0046691014756</v>
       </c>
       <c r="O14" t="n">
-        <v>846.08035247949</v>
+        <v>846.0803524794869</v>
       </c>
       <c r="P14" t="n">
-        <v>684.0550738506397</v>
+        <v>684.055073850637</v>
       </c>
       <c r="Q14" t="n">
-        <v>435.6950947517936</v>
+        <v>435.6950947517916</v>
       </c>
       <c r="R14" t="n">
-        <v>43.6665625688986</v>
+        <v>43.66656256889746</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>81.79074197213833</v>
+        <v>81.79074197213743</v>
       </c>
       <c r="K15" t="n">
-        <v>218.7376728670079</v>
+        <v>427.243578535057</v>
       </c>
       <c r="L15" t="n">
-        <v>340.9102406864014</v>
+        <v>340.9102406863993</v>
       </c>
       <c r="M15" t="n">
-        <v>625.8844689450202</v>
+        <v>417.378563276984</v>
       </c>
       <c r="N15" t="n">
-        <v>442.9795186818354</v>
+        <v>442.9795186818328</v>
       </c>
       <c r="O15" t="n">
-        <v>382.7954789458</v>
+        <v>382.7954789457976</v>
       </c>
       <c r="P15" t="n">
-        <v>287.6987699588786</v>
+        <v>287.6987699588768</v>
       </c>
       <c r="Q15" t="n">
-        <v>141.8955779804462</v>
+        <v>141.895577980445</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>37.52755378065685</v>
+        <v>37.52755378065439</v>
       </c>
       <c r="K16" t="n">
-        <v>192.81761878333</v>
+        <v>192.817618783329</v>
       </c>
       <c r="L16" t="n">
-        <v>302.8274749397424</v>
+        <v>302.8274749397413</v>
       </c>
       <c r="M16" t="n">
-        <v>329.7831765107183</v>
+        <v>329.783176510717</v>
       </c>
       <c r="N16" t="n">
-        <v>327.4311812121615</v>
+        <v>327.4311812121603</v>
       </c>
       <c r="O16" t="n">
-        <v>286.2576158445595</v>
+        <v>286.2576158445583</v>
       </c>
       <c r="P16" t="n">
-        <v>221.1845780086311</v>
+        <v>221.1845780086301</v>
       </c>
       <c r="Q16" t="n">
-        <v>68.85887817408495</v>
+        <v>68.85887817408427</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.2408119660088</v>
+        <v>169.2408119660072</v>
       </c>
       <c r="K17" t="n">
-        <v>629.0445470848246</v>
+        <v>629.0445470848222</v>
       </c>
       <c r="L17" t="n">
-        <v>833.1900588675923</v>
+        <v>833.1900588675894</v>
       </c>
       <c r="M17" t="n">
-        <v>943.8587673840497</v>
+        <v>943.8587673840464</v>
       </c>
       <c r="N17" t="n">
-        <v>507.0046691014789</v>
+        <v>944.3515935134598</v>
       </c>
       <c r="O17" t="n">
-        <v>760.0695495537766</v>
+        <v>600.7540356747012</v>
       </c>
       <c r="P17" t="n">
-        <v>362.256365679157</v>
+        <v>362.2563656791543</v>
       </c>
       <c r="Q17" t="n">
-        <v>435.6950947517936</v>
+        <v>223.3801040918869</v>
       </c>
       <c r="R17" t="n">
-        <v>109.382982441881</v>
+        <v>43.66656256889746</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>81.79074197213833</v>
+        <v>81.79074197213743</v>
       </c>
       <c r="K18" t="n">
-        <v>218.7376728670079</v>
+        <v>218.7376728670063</v>
       </c>
       <c r="L18" t="n">
-        <v>340.9102406864014</v>
+        <v>340.9102406863993</v>
       </c>
       <c r="M18" t="n">
-        <v>417.3785632769865</v>
+        <v>417.378563276984</v>
       </c>
       <c r="N18" t="n">
-        <v>442.9795186818354</v>
+        <v>442.9795186818328</v>
       </c>
       <c r="O18" t="n">
-        <v>382.7954789458</v>
+        <v>382.7954789457976</v>
       </c>
       <c r="P18" t="n">
-        <v>496.204675626912</v>
+        <v>287.6987699588768</v>
       </c>
       <c r="Q18" t="n">
-        <v>141.8955779804462</v>
+        <v>350.4014836484951</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>37.52755378065496</v>
+        <v>37.52755378065439</v>
       </c>
       <c r="K19" t="n">
-        <v>192.81761878333</v>
+        <v>192.817618783329</v>
       </c>
       <c r="L19" t="n">
-        <v>302.8274749397424</v>
+        <v>302.8274749397413</v>
       </c>
       <c r="M19" t="n">
-        <v>329.7831765107183</v>
+        <v>329.783176510717</v>
       </c>
       <c r="N19" t="n">
-        <v>327.4311812121615</v>
+        <v>327.4311812121603</v>
       </c>
       <c r="O19" t="n">
-        <v>286.2576158445595</v>
+        <v>286.2576158445583</v>
       </c>
       <c r="P19" t="n">
-        <v>221.1845780086311</v>
+        <v>221.1845780086301</v>
       </c>
       <c r="Q19" t="n">
-        <v>68.85887817408495</v>
+        <v>68.85887817408427</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>338.3374271380825</v>
+        <v>169.2408119660072</v>
       </c>
       <c r="K20" t="n">
-        <v>629.0445470848246</v>
+        <v>629.0445470848222</v>
       </c>
       <c r="L20" t="n">
-        <v>833.1900588675923</v>
+        <v>833.1900588675894</v>
       </c>
       <c r="M20" t="n">
-        <v>910.2360166699114</v>
+        <v>943.8587673840464</v>
       </c>
       <c r="N20" t="n">
-        <v>944.3515935134631</v>
+        <v>944.3515935134598</v>
       </c>
       <c r="O20" t="n">
-        <v>465.2801712167446</v>
+        <v>600.7540356746994</v>
       </c>
       <c r="P20" t="n">
-        <v>362.256365679157</v>
+        <v>362.2563656791543</v>
       </c>
       <c r="Q20" t="n">
-        <v>223.3801040918889</v>
+        <v>223.3801040918869</v>
       </c>
       <c r="R20" t="n">
-        <v>43.6665625688986</v>
+        <v>43.66656256889746</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>81.79074197213833</v>
+        <v>81.79074197213743</v>
       </c>
       <c r="K21" t="n">
-        <v>218.7376728670079</v>
+        <v>218.7376728670063</v>
       </c>
       <c r="L21" t="n">
-        <v>340.9102406864014</v>
+        <v>340.9102406863993</v>
       </c>
       <c r="M21" t="n">
-        <v>417.3785632769865</v>
+        <v>417.378563276984</v>
       </c>
       <c r="N21" t="n">
-        <v>442.9795186818354</v>
+        <v>651.4854243498835</v>
       </c>
       <c r="O21" t="n">
-        <v>591.3013846138336</v>
+        <v>382.7954789457976</v>
       </c>
       <c r="P21" t="n">
-        <v>287.6987699588786</v>
+        <v>287.6987699588768</v>
       </c>
       <c r="Q21" t="n">
-        <v>141.8955779804462</v>
+        <v>141.895577980445</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>37.52755378065496</v>
+        <v>37.52755378065439</v>
       </c>
       <c r="K22" t="n">
-        <v>192.81761878333</v>
+        <v>192.817618783329</v>
       </c>
       <c r="L22" t="n">
-        <v>302.8274749397424</v>
+        <v>302.8274749397413</v>
       </c>
       <c r="M22" t="n">
-        <v>329.7831765107183</v>
+        <v>329.783176510717</v>
       </c>
       <c r="N22" t="n">
-        <v>327.4311812121615</v>
+        <v>327.4311812121603</v>
       </c>
       <c r="O22" t="n">
-        <v>286.2576158445595</v>
+        <v>286.2576158445583</v>
       </c>
       <c r="P22" t="n">
-        <v>221.1845780086311</v>
+        <v>221.1845780086301</v>
       </c>
       <c r="Q22" t="n">
-        <v>68.85887817408495</v>
+        <v>68.85887817408427</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>338.3374271380825</v>
+        <v>169.2408119660067</v>
       </c>
       <c r="K23" t="n">
-        <v>304.8991345136598</v>
+        <v>629.0445470848215</v>
       </c>
       <c r="L23" t="n">
-        <v>833.1900588675923</v>
+        <v>833.1900588675885</v>
       </c>
       <c r="M23" t="n">
-        <v>494.3452338912172</v>
+        <v>943.8587673840454</v>
       </c>
       <c r="N23" t="n">
-        <v>944.3515935134631</v>
+        <v>944.3515935134589</v>
       </c>
       <c r="O23" t="n">
-        <v>671.2026677352159</v>
+        <v>600.7540356747058</v>
       </c>
       <c r="P23" t="n">
-        <v>684.0550738506397</v>
+        <v>362.2563656791535</v>
       </c>
       <c r="Q23" t="n">
-        <v>435.6950947517936</v>
+        <v>223.3801040918864</v>
       </c>
       <c r="R23" t="n">
-        <v>43.6665625688986</v>
+        <v>43.66656256889712</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>81.79074197213833</v>
+        <v>81.79074197213714</v>
       </c>
       <c r="K24" t="n">
-        <v>218.7376728670079</v>
+        <v>218.7376728670059</v>
       </c>
       <c r="L24" t="n">
-        <v>340.9102406864014</v>
+        <v>340.9102406863987</v>
       </c>
       <c r="M24" t="n">
-        <v>417.3785632769865</v>
+        <v>417.3785632769834</v>
       </c>
       <c r="N24" t="n">
-        <v>442.9795186818354</v>
+        <v>442.9795186818321</v>
       </c>
       <c r="O24" t="n">
-        <v>591.3013846138336</v>
+        <v>382.795478945797</v>
       </c>
       <c r="P24" t="n">
-        <v>287.6987699588786</v>
+        <v>287.6987699588763</v>
       </c>
       <c r="Q24" t="n">
-        <v>141.8955779804462</v>
+        <v>350.4014836484997</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>37.52755378065496</v>
+        <v>37.52755378065422</v>
       </c>
       <c r="K25" t="n">
-        <v>192.81761878333</v>
+        <v>192.8176187833287</v>
       </c>
       <c r="L25" t="n">
-        <v>302.8274749397424</v>
+        <v>302.8274749397408</v>
       </c>
       <c r="M25" t="n">
-        <v>329.7831765107183</v>
+        <v>329.7831765107166</v>
       </c>
       <c r="N25" t="n">
-        <v>327.4311812121615</v>
+        <v>327.4311812121599</v>
       </c>
       <c r="O25" t="n">
-        <v>286.2576158445595</v>
+        <v>286.257615844558</v>
       </c>
       <c r="P25" t="n">
-        <v>221.1845780086311</v>
+        <v>221.1845780086298</v>
       </c>
       <c r="Q25" t="n">
-        <v>68.85887817408495</v>
+        <v>68.85887817408407</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36604,7 +36604,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>840.3496503690146</v>
       </c>
       <c r="O26" t="n">
         <v>888.8531821509645</v>
@@ -36613,7 +36613,7 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>313.8101860077428</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
         <v>125.3296184152072</v>
@@ -36841,19 +36841,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>794.2356483307377</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P29" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
         <v>661.3366991265652</v>
@@ -37075,19 +37075,19 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>884.235124047144</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P32" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37227,7 +37227,7 @@
         <v>92.55355323165881</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L34" t="n">
         <v>366.7325087887907</v>
@@ -37306,28 +37306,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>485.2089366502542</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>803.4886170813098</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O37" t="n">
         <v>349.3282668412323</v>
@@ -37540,25 +37540,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L38" t="n">
-        <v>728.4729760499208</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.053000888219</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q38" t="n">
         <v>463.1092954636241</v>
@@ -37631,7 +37631,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O39" t="n">
         <v>415.1124034525805</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L41" t="n">
         <v>873.2513289427824</v>
       </c>
       <c r="M41" t="n">
-        <v>621.622706895785</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>798.7564048937573</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
         <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37871,7 +37871,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525811</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M43" t="n">
         <v>394.6085160120763</v>
@@ -38017,28 +38017,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P44" t="n">
-        <v>591.666744908082</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165881</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
@@ -38184,7 +38184,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
